--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1000000/Output_6_28.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1000000/Output_6_28.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2036830.201506478</v>
+        <v>2034908.567506722</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>3179494.983060171</v>
+        <v>3179494.983060169</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673437</v>
+        <v>603248.4937673438</v>
       </c>
     </row>
     <row r="9">
@@ -662,7 +662,7 @@
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>150.520054490682</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
@@ -674,7 +674,7 @@
         <v>15.16194852731947</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>93.88791431953679</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -704,28 +704,28 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>141.0252816852793</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
         <v>205.8118405263978</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>222.4795457699687</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.3343897888113</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>276.1565137023554</v>
       </c>
       <c r="W2" t="n">
-        <v>276.1565137023554</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>276.1565137023554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -738,10 +738,10 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C3" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>88.21024760771073</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
         <v>0</v>
@@ -750,10 +750,10 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>50.27086169796294</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>111.5079271034444</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -783,28 +783,28 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>95.48084390037957</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>170.2839726213331</v>
       </c>
       <c r="T3" t="n">
         <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>0</v>
+        <v>225.9364262421938</v>
       </c>
       <c r="V3" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>0</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X3" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y3" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -868,13 +868,13 @@
         <v>0</v>
       </c>
       <c r="T4" t="n">
+        <v>0</v>
+      </c>
+      <c r="U4" t="n">
+        <v>0</v>
+      </c>
+      <c r="V4" t="n">
         <v>175.1311939478778</v>
-      </c>
-      <c r="U4" t="n">
-        <v>0</v>
-      </c>
-      <c r="V4" t="n">
-        <v>0</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
@@ -893,13 +893,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>346.6395628336969</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>157.8225861702527</v>
+        <v>73.21884891961446</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>346.6395628336974</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
@@ -911,7 +911,7 @@
         <v>14.91803361253456</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>335.5349532732598</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -941,13 +941,13 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>125.7034614194215</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>221.4118082304977</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
@@ -956,13 +956,13 @@
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>346.6395628336974</v>
       </c>
       <c r="X5" t="n">
-        <v>346.6395628336969</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>346.6395628336969</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -972,16 +972,16 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>166.5331836498673</v>
+        <v>15.12940337160305</v>
       </c>
       <c r="C6" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
         <v>147.4450655646388</v>
       </c>
       <c r="E6" t="n">
-        <v>113.0916240397255</v>
+        <v>0</v>
       </c>
       <c r="F6" t="n">
         <v>0</v>
@@ -993,7 +993,7 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>82.30977906076225</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1020,19 +1020,19 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>87.37802494748621</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>0</v>
+        <v>199.3350702701579</v>
       </c>
       <c r="U6" t="n">
         <v>0</v>
       </c>
       <c r="V6" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W6" t="n">
         <v>251.6949831609196</v>
@@ -1054,16 +1054,16 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>105.9860372871765</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -1120,7 +1120,7 @@
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>85.17317883511832</v>
       </c>
     </row>
     <row r="8">
@@ -1130,28 +1130,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>290.0035889091394</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1184,13 +1184,13 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
@@ -1199,7 +1199,7 @@
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>108.4249867772598</v>
       </c>
     </row>
     <row r="9">
@@ -1294,19 +1294,19 @@
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>52.10844059186255</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -1333,19 +1333,19 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>127.0044127072327</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -1525,19 +1525,19 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>20.66293814301996</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
@@ -1573,22 +1573,22 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>197.9208099836032</v>
+        <v>187.8326399421082</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U13" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
         <v>225.7096553890372</v>
@@ -1661,7 +1661,7 @@
         <v>208.4827883385019</v>
       </c>
       <c r="U14" t="n">
-        <v>251.0785952498008</v>
+        <v>251.078595249801</v>
       </c>
       <c r="V14" t="n">
         <v>327.7522584701349</v>
@@ -1765,13 +1765,13 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
@@ -1780,7 +1780,7 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1810,28 +1810,28 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S16" t="n">
         <v>197.9208099836032</v>
       </c>
       <c r="T16" t="n">
-        <v>66.60428440447716</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>62.742365442944</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -1999,10 +1999,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
@@ -2014,7 +2014,7 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>115.5269768002174</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -2050,7 +2050,7 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>62.09617589318538</v>
       </c>
       <c r="T19" t="n">
         <v>221.5475610583892</v>
@@ -2062,13 +2062,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -2093,13 +2093,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>411.9645167896915</v>
+        <v>411.9645167896912</v>
       </c>
       <c r="H20" t="n">
         <v>305.2872491113177</v>
       </c>
       <c r="I20" t="n">
-        <v>81.77913505274049</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2236,13 +2236,13 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>61.00902571168207</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>15.41984486238731</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
@@ -2254,10 +2254,10 @@
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>135.1130142103968</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>96.61843130713271</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,28 +2284,28 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>96.16353824665359</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>184.119995826464</v>
       </c>
       <c r="T22" t="n">
-        <v>207.74674690125</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>272.4365382414381</v>
       </c>
       <c r="V22" t="n">
-        <v>238.3368291666887</v>
+        <v>238.3368291666888</v>
       </c>
       <c r="W22" t="n">
-        <v>272.7221841794517</v>
+        <v>272.7221841794518</v>
       </c>
       <c r="X22" t="n">
-        <v>211.9088412318979</v>
+        <v>211.908841231898</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>204.7838391949556</v>
       </c>
     </row>
     <row r="23">
@@ -2476,7 +2476,7 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>153.4460069414886</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
@@ -2488,10 +2488,10 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>41.44580617684676</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>135.1130142103968</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2530,19 +2530,19 @@
         <v>207.74674690125</v>
       </c>
       <c r="U25" t="n">
-        <v>272.4365382414381</v>
+        <v>234.7360087396384</v>
       </c>
       <c r="V25" t="n">
-        <v>238.3368291666887</v>
+        <v>238.3368291666888</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>272.7221841794518</v>
       </c>
       <c r="X25" t="n">
-        <v>211.9088412318979</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>204.7838391949555</v>
+        <v>204.7838391949556</v>
       </c>
     </row>
     <row r="26">
@@ -2710,16 +2710,16 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>166.031166024798</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
         <v>153.4460069414886</v>
       </c>
       <c r="D28" t="n">
-        <v>134.8146588610731</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>132.6331484894299</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
@@ -2731,7 +2731,7 @@
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>96.61843130713271</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,7 +2758,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>96.16353824665359</v>
       </c>
       <c r="S28" t="n">
         <v>184.119995826464</v>
@@ -2767,19 +2767,19 @@
         <v>207.74674690125</v>
       </c>
       <c r="U28" t="n">
-        <v>272.4365382414381</v>
+        <v>165.0004584277758</v>
       </c>
       <c r="V28" t="n">
-        <v>148.0449183568631</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>272.7221841794518</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>211.908841231898</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>204.7838391949556</v>
       </c>
     </row>
     <row r="29">
@@ -2947,7 +2947,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>166.0311660247981</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
@@ -2956,13 +2956,13 @@
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>132.63314848943</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>131.620233865792</v>
       </c>
       <c r="G31" t="n">
-        <v>152.6927543062383</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -2995,10 +2995,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>96.16353824665359</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>11.7542158061683</v>
       </c>
       <c r="T31" t="n">
         <v>207.74674690125</v>
@@ -3007,16 +3007,16 @@
         <v>272.4365382414381</v>
       </c>
       <c r="V31" t="n">
-        <v>238.3368291666887</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>272.7221841794517</v>
+        <v>272.7221841794518</v>
       </c>
       <c r="X31" t="n">
-        <v>211.9088412318979</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>140.0477169229732</v>
+        <v>204.7838391949556</v>
       </c>
     </row>
     <row r="32">
@@ -3187,25 +3187,25 @@
         <v>111.7000900522966</v>
       </c>
       <c r="C34" t="n">
-        <v>99.11493096898715</v>
+        <v>99.11493096898717</v>
       </c>
       <c r="D34" t="n">
-        <v>80.48358288857168</v>
+        <v>80.48358288857169</v>
       </c>
       <c r="E34" t="n">
-        <v>78.30207251692849</v>
+        <v>78.3020725169285</v>
       </c>
       <c r="F34" t="n">
-        <v>77.28915789329056</v>
+        <v>77.28915789329058</v>
       </c>
       <c r="G34" t="n">
-        <v>98.3616783337369</v>
+        <v>98.36167833373692</v>
       </c>
       <c r="H34" t="n">
-        <v>80.78193823789545</v>
+        <v>80.78193823789546</v>
       </c>
       <c r="I34" t="n">
-        <v>42.2873553346313</v>
+        <v>42.28735533463131</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,7 +3232,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>41.83246227415211</v>
+        <v>41.83246227415212</v>
       </c>
       <c r="S34" t="n">
         <v>129.7889198539626</v>
@@ -3284,7 +3284,7 @@
         <v>237.1553589816771</v>
       </c>
       <c r="I35" t="n">
-        <v>13.64724492310009</v>
+        <v>13.64724492310012</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3320,19 +3320,19 @@
         <v>140.3508982088613</v>
       </c>
       <c r="U35" t="n">
-        <v>182.9467051201603</v>
+        <v>182.9467051201589</v>
       </c>
       <c r="V35" t="n">
-        <v>259.6203683404942</v>
+        <v>259.6203683404943</v>
       </c>
       <c r="W35" t="n">
-        <v>281.1090785877712</v>
+        <v>281.1090785877724</v>
       </c>
       <c r="X35" t="n">
         <v>301.5992105488284</v>
       </c>
       <c r="Y35" t="n">
-        <v>318.1060485264129</v>
+        <v>318.106048526413</v>
       </c>
     </row>
     <row r="36">
@@ -3421,28 +3421,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>111.7000900522966</v>
+        <v>111.7000900522967</v>
       </c>
       <c r="C37" t="n">
-        <v>99.11493096898718</v>
+        <v>99.1149309689872</v>
       </c>
       <c r="D37" t="n">
-        <v>80.4835828885717</v>
+        <v>80.48358288857172</v>
       </c>
       <c r="E37" t="n">
-        <v>78.30207251692852</v>
+        <v>78.30207251692853</v>
       </c>
       <c r="F37" t="n">
-        <v>77.28915789329059</v>
+        <v>77.28915789329061</v>
       </c>
       <c r="G37" t="n">
-        <v>98.36167833373693</v>
+        <v>98.36167833373695</v>
       </c>
       <c r="H37" t="n">
-        <v>80.78193823789547</v>
+        <v>80.78193823789549</v>
       </c>
       <c r="I37" t="n">
-        <v>42.28735533463133</v>
+        <v>42.28735533463134</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,7 +3469,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>41.83246227415214</v>
+        <v>41.83246227415215</v>
       </c>
       <c r="S37" t="n">
         <v>129.7889198539626</v>
@@ -3481,16 +3481,16 @@
         <v>218.1054622689367</v>
       </c>
       <c r="V37" t="n">
-        <v>184.0057531941873</v>
+        <v>184.0057531941874</v>
       </c>
       <c r="W37" t="n">
-        <v>218.3911082069503</v>
+        <v>218.3911082069504</v>
       </c>
       <c r="X37" t="n">
         <v>157.5777652593965</v>
       </c>
       <c r="Y37" t="n">
-        <v>150.4527632224541</v>
+        <v>150.4527632224542</v>
       </c>
     </row>
     <row r="38">
@@ -3749,7 +3749,7 @@
         <v>313.7984799426212</v>
       </c>
       <c r="F41" t="n">
-        <v>338.7441556120694</v>
+        <v>338.7441556120708</v>
       </c>
       <c r="G41" t="n">
         <v>343.8326266600508</v>
@@ -3788,7 +3788,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>64.81847467555819</v>
+        <v>64.81847467555738</v>
       </c>
       <c r="T41" t="n">
         <v>140.3508982088613</v>
@@ -3995,7 +3995,7 @@
         <v>237.1553589816771</v>
       </c>
       <c r="I44" t="n">
-        <v>13.64724492310012</v>
+        <v>13.64724492310009</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4025,16 +4025,16 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>64.81847467555693</v>
+        <v>64.81847467555819</v>
       </c>
       <c r="T44" t="n">
         <v>140.3508982088613</v>
       </c>
       <c r="U44" t="n">
-        <v>182.9467051201604</v>
+        <v>182.9467051201603</v>
       </c>
       <c r="V44" t="n">
-        <v>259.6203683404943</v>
+        <v>259.6203683404942</v>
       </c>
       <c r="W44" t="n">
         <v>281.1090785877724</v>
@@ -4043,7 +4043,7 @@
         <v>301.5992105488284</v>
       </c>
       <c r="Y44" t="n">
-        <v>318.106048526413</v>
+        <v>318.1060485264117</v>
       </c>
     </row>
     <row r="45">
@@ -4132,28 +4132,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>111.7000900522967</v>
+        <v>111.7000900522966</v>
       </c>
       <c r="C46" t="n">
-        <v>99.11493096898721</v>
+        <v>99.11493096898718</v>
       </c>
       <c r="D46" t="n">
-        <v>80.48358288857173</v>
+        <v>80.4835828885717</v>
       </c>
       <c r="E46" t="n">
-        <v>78.30207251692855</v>
+        <v>78.30207251692852</v>
       </c>
       <c r="F46" t="n">
-        <v>77.28915789329062</v>
+        <v>77.28915789329059</v>
       </c>
       <c r="G46" t="n">
-        <v>98.36167833373696</v>
+        <v>98.36167833373693</v>
       </c>
       <c r="H46" t="n">
-        <v>80.7819382378955</v>
+        <v>80.78193823789547</v>
       </c>
       <c r="I46" t="n">
-        <v>42.28735533463136</v>
+        <v>42.28735533463133</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,7 +4180,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>41.83246227415216</v>
+        <v>41.83246227415214</v>
       </c>
       <c r="S46" t="n">
         <v>129.7889198539626</v>
@@ -4192,16 +4192,16 @@
         <v>218.1054622689367</v>
       </c>
       <c r="V46" t="n">
-        <v>184.0057531941874</v>
+        <v>184.0057531941873</v>
       </c>
       <c r="W46" t="n">
-        <v>218.3911082069504</v>
+        <v>218.3911082069503</v>
       </c>
       <c r="X46" t="n">
         <v>157.5777652593965</v>
       </c>
       <c r="Y46" t="n">
-        <v>150.4527632224542</v>
+        <v>150.4527632224541</v>
       </c>
     </row>
   </sheetData>
@@ -4304,22 +4304,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>196.3935804494338</v>
+        <v>139.189398458378</v>
       </c>
       <c r="C2" t="n">
-        <v>196.3935804494338</v>
+        <v>139.189398458378</v>
       </c>
       <c r="D2" t="n">
-        <v>44.35312136793682</v>
+        <v>139.189398458378</v>
       </c>
       <c r="E2" t="n">
-        <v>44.35312136793682</v>
+        <v>139.189398458378</v>
       </c>
       <c r="F2" t="n">
-        <v>37.40762061873335</v>
+        <v>132.2438977091746</v>
       </c>
       <c r="G2" t="n">
-        <v>22.09252109618843</v>
+        <v>116.9287981866296</v>
       </c>
       <c r="H2" t="n">
         <v>22.09252109618843</v>
@@ -4352,28 +4352,28 @@
         <v>1104.626054809422</v>
       </c>
       <c r="R2" t="n">
-        <v>962.1762753293416</v>
+        <v>1104.626054809422</v>
       </c>
       <c r="S2" t="n">
-        <v>754.2855273228791</v>
+        <v>896.7353068029593</v>
       </c>
       <c r="T2" t="n">
-        <v>754.2855273228791</v>
+        <v>672.0084928939</v>
       </c>
       <c r="U2" t="n">
-        <v>754.2855273228791</v>
+        <v>418.1353718951007</v>
       </c>
       <c r="V2" t="n">
-        <v>754.2855273228791</v>
+        <v>139.189398458378</v>
       </c>
       <c r="W2" t="n">
-        <v>475.3395538861565</v>
+        <v>139.189398458378</v>
       </c>
       <c r="X2" t="n">
-        <v>475.3395538861565</v>
+        <v>139.189398458378</v>
       </c>
       <c r="Y2" t="n">
-        <v>196.3935804494338</v>
+        <v>139.189398458378</v>
       </c>
     </row>
     <row r="3">
@@ -4383,22 +4383,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>285.6468105871243</v>
+        <v>185.505439077408</v>
       </c>
       <c r="C3" t="n">
-        <v>111.1937813059972</v>
+        <v>185.505439077408</v>
       </c>
       <c r="D3" t="n">
-        <v>22.09252109618843</v>
+        <v>185.505439077408</v>
       </c>
       <c r="E3" t="n">
-        <v>22.09252109618843</v>
+        <v>185.505439077408</v>
       </c>
       <c r="F3" t="n">
-        <v>22.09252109618843</v>
+        <v>185.505439077408</v>
       </c>
       <c r="G3" t="n">
-        <v>22.09252109618843</v>
+        <v>134.7267908976475</v>
       </c>
       <c r="H3" t="n">
         <v>22.09252109618843</v>
@@ -4407,52 +4407,52 @@
         <v>22.09252109618843</v>
       </c>
       <c r="J3" t="n">
-        <v>22.09252109618843</v>
+        <v>28.39914141318534</v>
       </c>
       <c r="K3" t="n">
-        <v>22.09252109618843</v>
+        <v>165.799003153448</v>
       </c>
       <c r="L3" t="n">
-        <v>268.2479876888894</v>
+        <v>282.0379868638976</v>
       </c>
       <c r="M3" t="n">
-        <v>541.6429362542212</v>
+        <v>555.4329354292295</v>
       </c>
       <c r="N3" t="n">
-        <v>815.037884819553</v>
+        <v>828.8278839945614</v>
       </c>
       <c r="O3" t="n">
-        <v>907.7419348121333</v>
+        <v>828.8278839945614</v>
       </c>
       <c r="P3" t="n">
-        <v>1104.626054809422</v>
+        <v>1025.71200399185</v>
       </c>
       <c r="Q3" t="n">
         <v>1104.626054809422</v>
       </c>
       <c r="R3" t="n">
-        <v>1104.626054809422</v>
+        <v>1008.180757940351</v>
       </c>
       <c r="S3" t="n">
-        <v>1104.626054809422</v>
+        <v>836.17674519153</v>
       </c>
       <c r="T3" t="n">
-        <v>1104.626054809422</v>
+        <v>836.17674519153</v>
       </c>
       <c r="U3" t="n">
-        <v>1104.626054809422</v>
+        <v>607.9581328256777</v>
       </c>
       <c r="V3" t="n">
-        <v>869.473946577679</v>
+        <v>607.9581328256777</v>
       </c>
       <c r="W3" t="n">
-        <v>869.473946577679</v>
+        <v>353.7207760974761</v>
       </c>
       <c r="X3" t="n">
-        <v>661.6224463721462</v>
+        <v>353.7207760974761</v>
       </c>
       <c r="Y3" t="n">
-        <v>453.8621476071923</v>
+        <v>353.7207760974761</v>
       </c>
     </row>
     <row r="4">
@@ -4516,10 +4516,10 @@
         <v>198.9927170031358</v>
       </c>
       <c r="T4" t="n">
-        <v>22.09252109618843</v>
+        <v>198.9927170031358</v>
       </c>
       <c r="U4" t="n">
-        <v>22.09252109618843</v>
+        <v>198.9927170031358</v>
       </c>
       <c r="V4" t="n">
         <v>22.09252109618843</v>
@@ -4541,76 +4541,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>209.1621403039671</v>
+        <v>812.7689876335824</v>
       </c>
       <c r="C5" t="n">
-        <v>49.7453865966412</v>
+        <v>738.8105543814465</v>
       </c>
       <c r="D5" t="n">
-        <v>49.7453865966412</v>
+        <v>388.6695818221563</v>
       </c>
       <c r="E5" t="n">
-        <v>49.7453865966412</v>
+        <v>388.6695818221563</v>
       </c>
       <c r="F5" t="n">
-        <v>42.79988584743773</v>
+        <v>381.7240810729528</v>
       </c>
       <c r="G5" t="n">
-        <v>27.73116502669575</v>
+        <v>366.6553602522108</v>
       </c>
       <c r="H5" t="n">
-        <v>27.73116502669575</v>
+        <v>27.73116502669579</v>
       </c>
       <c r="I5" t="n">
-        <v>27.73116502669575</v>
+        <v>27.73116502669579</v>
       </c>
       <c r="J5" t="n">
-        <v>48.22611879043453</v>
+        <v>48.22611879043473</v>
       </c>
       <c r="K5" t="n">
-        <v>199.6875459612701</v>
+        <v>199.6875459612705</v>
       </c>
       <c r="L5" t="n">
-        <v>439.8654670444597</v>
+        <v>439.8654670444602</v>
       </c>
       <c r="M5" t="n">
-        <v>723.7162270534876</v>
+        <v>723.7162270534884</v>
       </c>
       <c r="N5" t="n">
-        <v>997.5279915704817</v>
+        <v>997.5279915704829</v>
       </c>
       <c r="O5" t="n">
-        <v>1210.893038585716</v>
+        <v>1210.893038585717</v>
       </c>
       <c r="P5" t="n">
-        <v>1355.320786930858</v>
+        <v>1355.320786930859</v>
       </c>
       <c r="Q5" t="n">
-        <v>1386.558251334788</v>
+        <v>1386.558251334789</v>
       </c>
       <c r="R5" t="n">
-        <v>1259.585057981837</v>
+        <v>1386.558251334789</v>
       </c>
       <c r="S5" t="n">
-        <v>1259.585057981837</v>
+        <v>1386.558251334789</v>
       </c>
       <c r="T5" t="n">
-        <v>1259.585057981837</v>
+        <v>1162.909960192873</v>
       </c>
       <c r="U5" t="n">
-        <v>1259.585057981837</v>
+        <v>1162.909960192873</v>
       </c>
       <c r="V5" t="n">
-        <v>1259.585057981837</v>
+        <v>1162.909960192873</v>
       </c>
       <c r="W5" t="n">
-        <v>1259.585057981837</v>
+        <v>812.7689876335824</v>
       </c>
       <c r="X5" t="n">
-        <v>909.4440854225468</v>
+        <v>812.7689876335824</v>
       </c>
       <c r="Y5" t="n">
-        <v>559.303112863257</v>
+        <v>812.7689876335824</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4620,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>548.4937586160313</v>
+        <v>176.6655746879471</v>
       </c>
       <c r="C6" t="n">
-        <v>374.0407293349043</v>
+        <v>176.6655746879471</v>
       </c>
       <c r="D6" t="n">
-        <v>225.106319673653</v>
+        <v>27.73116502669579</v>
       </c>
       <c r="E6" t="n">
-        <v>110.8723559971627</v>
+        <v>27.73116502669579</v>
       </c>
       <c r="F6" t="n">
-        <v>110.8723559971627</v>
+        <v>27.73116502669579</v>
       </c>
       <c r="G6" t="n">
-        <v>110.8723559971627</v>
+        <v>27.73116502669579</v>
       </c>
       <c r="H6" t="n">
-        <v>110.8723559971627</v>
+        <v>27.73116502669579</v>
       </c>
       <c r="I6" t="n">
-        <v>27.73116502669575</v>
+        <v>27.73116502669579</v>
       </c>
       <c r="J6" t="n">
-        <v>27.73116502669575</v>
+        <v>46.24443940088633</v>
       </c>
       <c r="K6" t="n">
-        <v>27.73116502669575</v>
+        <v>204.5074171721456</v>
       </c>
       <c r="L6" t="n">
-        <v>301.9396657915042</v>
+        <v>383.249651405032</v>
       </c>
       <c r="M6" t="n">
-        <v>645.1128329968642</v>
+        <v>726.4228186103924</v>
       </c>
       <c r="N6" t="n">
-        <v>867.7654210464177</v>
+        <v>1069.595985815753</v>
       </c>
       <c r="O6" t="n">
-        <v>1165.002421373148</v>
+        <v>1069.595985815753</v>
       </c>
       <c r="P6" t="n">
-        <v>1386.558251334788</v>
+        <v>1291.151815777393</v>
       </c>
       <c r="Q6" t="n">
-        <v>1386.558251334788</v>
+        <v>1386.558251334789</v>
       </c>
       <c r="R6" t="n">
-        <v>1386.558251334788</v>
+        <v>1298.297620074702</v>
       </c>
       <c r="S6" t="n">
-        <v>1386.558251334788</v>
+        <v>1298.297620074702</v>
       </c>
       <c r="T6" t="n">
-        <v>1386.558251334788</v>
+        <v>1096.94906424626</v>
       </c>
       <c r="U6" t="n">
-        <v>1386.558251334788</v>
+        <v>1096.94906424626</v>
       </c>
       <c r="V6" t="n">
-        <v>1386.558251334788</v>
+        <v>861.7969560145173</v>
       </c>
       <c r="W6" t="n">
-        <v>1132.320894606586</v>
+        <v>607.5595992863157</v>
       </c>
       <c r="X6" t="n">
-        <v>924.4693944010533</v>
+        <v>399.7080990807829</v>
       </c>
       <c r="Y6" t="n">
-        <v>716.7090956360994</v>
+        <v>191.9478003158289</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4699,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>282.7008619294692</v>
+        <v>196.6673479546027</v>
       </c>
       <c r="C7" t="n">
-        <v>282.7008619294692</v>
+        <v>27.73116502669579</v>
       </c>
       <c r="D7" t="n">
-        <v>282.7008619294692</v>
+        <v>27.73116502669579</v>
       </c>
       <c r="E7" t="n">
-        <v>134.7877683470761</v>
+        <v>27.73116502669579</v>
       </c>
       <c r="F7" t="n">
-        <v>27.73116502669575</v>
+        <v>27.73116502669579</v>
       </c>
       <c r="G7" t="n">
-        <v>27.73116502669575</v>
+        <v>27.73116502669579</v>
       </c>
       <c r="H7" t="n">
-        <v>27.73116502669575</v>
+        <v>27.73116502669579</v>
       </c>
       <c r="I7" t="n">
-        <v>27.73116502669575</v>
+        <v>27.73116502669579</v>
       </c>
       <c r="J7" t="n">
-        <v>27.73116502669575</v>
+        <v>27.73116502669579</v>
       </c>
       <c r="K7" t="n">
-        <v>27.73116502669575</v>
+        <v>27.73116502669579</v>
       </c>
       <c r="L7" t="n">
-        <v>80.44443135064925</v>
+        <v>80.44443135064938</v>
       </c>
       <c r="M7" t="n">
-        <v>146.4123028384527</v>
+        <v>146.4123028384529</v>
       </c>
       <c r="N7" t="n">
-        <v>216.2462222095718</v>
+        <v>216.2462222095721</v>
       </c>
       <c r="O7" t="n">
-        <v>264.7328541816918</v>
+        <v>264.7328541816922</v>
       </c>
       <c r="P7" t="n">
-        <v>282.7008619294692</v>
+        <v>282.7008619294697</v>
       </c>
       <c r="Q7" t="n">
-        <v>282.7008619294692</v>
+        <v>282.7008619294697</v>
       </c>
       <c r="R7" t="n">
-        <v>282.7008619294692</v>
+        <v>282.7008619294697</v>
       </c>
       <c r="S7" t="n">
-        <v>282.7008619294692</v>
+        <v>282.7008619294697</v>
       </c>
       <c r="T7" t="n">
-        <v>282.7008619294692</v>
+        <v>282.7008619294697</v>
       </c>
       <c r="U7" t="n">
-        <v>282.7008619294692</v>
+        <v>282.7008619294697</v>
       </c>
       <c r="V7" t="n">
-        <v>282.7008619294692</v>
+        <v>282.7008619294697</v>
       </c>
       <c r="W7" t="n">
-        <v>282.7008619294692</v>
+        <v>282.7008619294697</v>
       </c>
       <c r="X7" t="n">
-        <v>282.7008619294692</v>
+        <v>282.7008619294697</v>
       </c>
       <c r="Y7" t="n">
-        <v>282.7008619294692</v>
+        <v>196.6673479546027</v>
       </c>
     </row>
     <row r="8">
@@ -4778,25 +4778,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1512.612574238668</v>
+        <v>1376.372217881286</v>
       </c>
       <c r="C8" t="n">
-        <v>1143.650057298256</v>
+        <v>1376.372217881286</v>
       </c>
       <c r="D8" t="n">
-        <v>1143.650057298256</v>
+        <v>1018.106519274536</v>
       </c>
       <c r="E8" t="n">
-        <v>757.8618047000118</v>
+        <v>632.3182666762914</v>
       </c>
       <c r="F8" t="n">
-        <v>346.8758999104043</v>
+        <v>625.3727659270879</v>
       </c>
       <c r="G8" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="H8" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I8" t="n">
         <v>53.94298182036445</v>
@@ -4808,7 +4808,7 @@
         <v>463.9616490733126</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224079</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
@@ -4832,22 +4832,22 @@
         <v>2642.120401548716</v>
       </c>
       <c r="T8" t="n">
-        <v>2642.120401548716</v>
+        <v>2423.485734520778</v>
       </c>
       <c r="U8" t="n">
-        <v>2642.120401548716</v>
+        <v>2169.72394915887</v>
       </c>
       <c r="V8" t="n">
-        <v>2642.120401548716</v>
+        <v>1838.661061815299</v>
       </c>
       <c r="W8" t="n">
-        <v>2289.351746278601</v>
+        <v>1485.892406545185</v>
       </c>
       <c r="X8" t="n">
-        <v>2289.351746278601</v>
+        <v>1485.892406545185</v>
       </c>
       <c r="Y8" t="n">
-        <v>1899.21241430279</v>
+        <v>1376.372217881286</v>
       </c>
     </row>
     <row r="9">
@@ -4881,25 +4881,25 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J9" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K9" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L9" t="n">
-        <v>713.8062203571349</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M9" t="n">
-        <v>1237.953133915166</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N9" t="n">
-        <v>1791.679670014717</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O9" t="n">
-        <v>2231.815593035061</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P9" t="n">
-        <v>2568.06040664989</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q9" t="n">
         <v>2697.149091018222</v>
@@ -4936,22 +4936,22 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>728.1289842064342</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C10" t="n">
-        <v>728.1289842064342</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D10" t="n">
-        <v>675.4941957298054</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E10" t="n">
-        <v>527.5811021474123</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F10" t="n">
-        <v>380.6911546495019</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G10" t="n">
-        <v>211.6913543878343</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H10" t="n">
         <v>53.94298182036445</v>
@@ -4981,31 +4981,31 @@
         <v>728.1289842064342</v>
       </c>
       <c r="Q10" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="R10" t="n">
-        <v>728.1289842064342</v>
+        <v>570.4247794971948</v>
       </c>
       <c r="S10" t="n">
-        <v>728.1289842064342</v>
+        <v>570.4247794971948</v>
       </c>
       <c r="T10" t="n">
-        <v>728.1289842064342</v>
+        <v>343.1165921657965</v>
       </c>
       <c r="U10" t="n">
-        <v>728.1289842064342</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="V10" t="n">
-        <v>728.1289842064342</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="W10" t="n">
-        <v>728.1289842064342</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="X10" t="n">
-        <v>728.1289842064342</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="Y10" t="n">
-        <v>728.1289842064342</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="11">
@@ -5015,13 +5015,13 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C11" t="n">
         <v>2059.358867610191</v>
       </c>
       <c r="D11" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E11" t="n">
         <v>1315.304916405196</v>
@@ -5072,19 +5072,19 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U11" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V11" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W11" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X11" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y11" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="12">
@@ -5118,25 +5118,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J12" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K12" t="n">
-        <v>644.6755122555215</v>
+        <v>549.5984374701561</v>
       </c>
       <c r="L12" t="n">
-        <v>891.4406401619856</v>
+        <v>796.3635653766202</v>
       </c>
       <c r="M12" t="n">
-        <v>1198.760773441947</v>
+        <v>1103.683698656582</v>
       </c>
       <c r="N12" t="n">
-        <v>1528.62340110598</v>
+        <v>1433.546326320615</v>
       </c>
       <c r="O12" t="n">
-        <v>1808.163466324677</v>
+        <v>2103.010087623274</v>
       </c>
       <c r="P12" t="n">
-        <v>2328.464088060424</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q12" t="n">
         <v>2623.573505376138</v>
@@ -5173,16 +5173,16 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>416.118479144934</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C13" t="n">
-        <v>416.118479144934</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D13" t="n">
-        <v>266.0018397325982</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E13" t="n">
-        <v>118.088746150205</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F13" t="n">
         <v>97.21709146028584</v>
@@ -5215,34 +5215,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P13" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q13" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R13" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S13" t="n">
-        <v>1187.92115703528</v>
+        <v>1309.18633122244</v>
       </c>
       <c r="T13" t="n">
-        <v>1187.92115703528</v>
+        <v>1085.400916011946</v>
       </c>
       <c r="U13" t="n">
-        <v>898.7925182488382</v>
+        <v>796.2722772255038</v>
       </c>
       <c r="V13" t="n">
-        <v>644.1080300429513</v>
+        <v>796.2722772255038</v>
       </c>
       <c r="W13" t="n">
-        <v>644.1080300429513</v>
+        <v>506.8551071885432</v>
       </c>
       <c r="X13" t="n">
-        <v>416.118479144934</v>
+        <v>278.8655562905255</v>
       </c>
       <c r="Y13" t="n">
-        <v>416.118479144934</v>
+        <v>278.8655562905255</v>
       </c>
     </row>
     <row r="14">
@@ -5252,22 +5252,22 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C14" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D14" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E14" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F14" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155882</v>
       </c>
       <c r="G14" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805463</v>
       </c>
       <c r="H14" t="n">
         <v>179.8222783822462</v>
@@ -5303,25 +5303,25 @@
         <v>4860.854573014292</v>
       </c>
       <c r="S14" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T14" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U14" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V14" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W14" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X14" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y14" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="15">
@@ -5358,25 +5358,25 @@
         <v>263.5382936126482</v>
       </c>
       <c r="K15" t="n">
-        <v>412.6079778147081</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L15" t="n">
-        <v>659.3731057211721</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M15" t="n">
-        <v>966.6932390011339</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N15" t="n">
-        <v>1771.104817265285</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O15" t="n">
-        <v>2050.644882483982</v>
+        <v>2227.840212610279</v>
       </c>
       <c r="P15" t="n">
-        <v>2328.464088060424</v>
+        <v>2525.810590821615</v>
       </c>
       <c r="Q15" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R15" t="n">
         <v>2623.573505376138</v>
@@ -5410,22 +5410,22 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>714.6010158349782</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C16" t="n">
-        <v>545.6648329070713</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D16" t="n">
-        <v>395.5481934947355</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E16" t="n">
-        <v>247.6350999123424</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F16" t="n">
-        <v>247.6350999123424</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G16" t="n">
-        <v>247.6350999123424</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H16" t="n">
         <v>97.21709146028584</v>
@@ -5437,13 +5437,13 @@
         <v>109.5997839241957</v>
       </c>
       <c r="K16" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688073</v>
       </c>
       <c r="L16" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M16" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N16" t="n">
         <v>1049.608084974667</v>
@@ -5458,28 +5458,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R16" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S16" t="n">
-        <v>1298.996260473455</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T16" t="n">
-        <v>1231.719205519437</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="U16" t="n">
-        <v>942.5905667329955</v>
+        <v>898.7925182488384</v>
       </c>
       <c r="V16" t="n">
-        <v>942.5905667329955</v>
+        <v>835.416391538794</v>
       </c>
       <c r="W16" t="n">
-        <v>942.5905667329955</v>
+        <v>545.9992215018333</v>
       </c>
       <c r="X16" t="n">
-        <v>714.6010158349782</v>
+        <v>318.0096706038159</v>
       </c>
       <c r="Y16" t="n">
-        <v>714.6010158349782</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="17">
@@ -5489,22 +5489,22 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C17" t="n">
         <v>2059.358867610191</v>
       </c>
       <c r="D17" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E17" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F17" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G17" t="n">
-        <v>488.1932370805471</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H17" t="n">
         <v>179.8222783822462</v>
@@ -5513,13 +5513,13 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J17" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K17" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L17" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M17" t="n">
         <v>2388.164701515097</v>
@@ -5540,25 +5540,25 @@
         <v>4860.854573014292</v>
       </c>
       <c r="S17" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T17" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U17" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V17" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W17" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X17" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y17" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="18">
@@ -5595,25 +5595,25 @@
         <v>263.5382936126482</v>
       </c>
       <c r="K18" t="n">
-        <v>644.6755122555215</v>
+        <v>412.6079778147081</v>
       </c>
       <c r="L18" t="n">
-        <v>891.4406401619856</v>
+        <v>1026.505047571597</v>
       </c>
       <c r="M18" t="n">
-        <v>1198.760773441947</v>
+        <v>1396.107276203138</v>
       </c>
       <c r="N18" t="n">
-        <v>1528.62340110598</v>
+        <v>1725.969903867171</v>
       </c>
       <c r="O18" t="n">
-        <v>1808.163466324677</v>
+        <v>2005.509969085868</v>
       </c>
       <c r="P18" t="n">
-        <v>2328.464088060424</v>
+        <v>2525.810590821615</v>
       </c>
       <c r="Q18" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R18" t="n">
         <v>2623.573505376138</v>
@@ -5647,19 +5647,19 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>213.9110074201016</v>
+        <v>266.1532743881927</v>
       </c>
       <c r="C19" t="n">
-        <v>213.9110074201016</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D19" t="n">
-        <v>213.9110074201016</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E19" t="n">
-        <v>213.9110074201016</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F19" t="n">
-        <v>213.9110074201016</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G19" t="n">
         <v>97.21709146028584</v>
@@ -5683,10 +5683,10 @@
         <v>779.0639759471192</v>
       </c>
       <c r="N19" t="n">
-        <v>1049.608084974667</v>
+        <v>1049.608084974666</v>
       </c>
       <c r="O19" t="n">
-        <v>1283.483062980064</v>
+        <v>1283.483062980063</v>
       </c>
       <c r="P19" t="n">
         <v>1460.082827585746</v>
@@ -5698,25 +5698,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S19" t="n">
-        <v>1498.916270557902</v>
+        <v>1436.192860564785</v>
       </c>
       <c r="T19" t="n">
-        <v>1275.130855347408</v>
+        <v>1212.407445354291</v>
       </c>
       <c r="U19" t="n">
-        <v>986.0022165609663</v>
+        <v>923.2788065678494</v>
       </c>
       <c r="V19" t="n">
-        <v>731.3177283550795</v>
+        <v>668.5943183619626</v>
       </c>
       <c r="W19" t="n">
-        <v>441.9005583181189</v>
+        <v>668.5943183619626</v>
       </c>
       <c r="X19" t="n">
-        <v>213.9110074201016</v>
+        <v>668.5943183619626</v>
       </c>
       <c r="Y19" t="n">
-        <v>213.9110074201016</v>
+        <v>447.8017392184324</v>
       </c>
     </row>
     <row r="20">
@@ -5741,10 +5741,10 @@
         <v>904.3190116155886</v>
       </c>
       <c r="G20" t="n">
-        <v>488.1932370805467</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H20" t="n">
-        <v>179.8222783822459</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I20" t="n">
         <v>97.21709146028584</v>
@@ -5829,22 +5829,22 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J21" t="n">
-        <v>263.5382936126482</v>
+        <v>233.7852434110089</v>
       </c>
       <c r="K21" t="n">
-        <v>674.4285624571609</v>
+        <v>644.6755122555215</v>
       </c>
       <c r="L21" t="n">
-        <v>921.1936903636249</v>
+        <v>891.4406401619856</v>
       </c>
       <c r="M21" t="n">
-        <v>1514.038914395485</v>
+        <v>1198.760773441947</v>
       </c>
       <c r="N21" t="n">
-        <v>1843.901542059518</v>
+        <v>1528.62340110598</v>
       </c>
       <c r="O21" t="n">
-        <v>2123.441607278215</v>
+        <v>1808.163466324677</v>
       </c>
       <c r="P21" t="n">
         <v>2328.464088060424</v>
@@ -5884,76 +5884,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>331.2892586497096</v>
+        <v>112.792692331384</v>
       </c>
       <c r="C22" t="n">
-        <v>331.2892586497096</v>
+        <v>112.792692331384</v>
       </c>
       <c r="D22" t="n">
-        <v>331.2892586497096</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E22" t="n">
-        <v>331.2892586497096</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F22" t="n">
-        <v>331.2892586497096</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G22" t="n">
-        <v>331.2892586497096</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H22" t="n">
-        <v>194.8114665179957</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I22" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J22" t="n">
-        <v>123.2625899397636</v>
+        <v>123.2625899397634</v>
       </c>
       <c r="K22" t="n">
-        <v>287.1108001999429</v>
+        <v>287.1108001999427</v>
       </c>
       <c r="L22" t="n">
-        <v>548.4856512266401</v>
+        <v>548.4856512266398</v>
       </c>
       <c r="M22" t="n">
-        <v>833.7152000093909</v>
+        <v>833.7152000093904</v>
       </c>
       <c r="N22" t="n">
         <v>1117.922115052506</v>
       </c>
       <c r="O22" t="n">
-        <v>1365.459899073471</v>
+        <v>1365.45989907347</v>
       </c>
       <c r="P22" t="n">
-        <v>1555.722469694722</v>
+        <v>1555.722469694721</v>
       </c>
       <c r="Q22" t="n">
-        <v>1608.218718682446</v>
+        <v>1608.218718682445</v>
       </c>
       <c r="R22" t="n">
-        <v>1608.218718682446</v>
+        <v>1511.083831564613</v>
       </c>
       <c r="S22" t="n">
-        <v>1608.218718682446</v>
+        <v>1325.104037800508</v>
       </c>
       <c r="T22" t="n">
-        <v>1398.373519792294</v>
+        <v>1325.104037800508</v>
       </c>
       <c r="U22" t="n">
-        <v>1123.185097326195</v>
+        <v>1049.915615334409</v>
       </c>
       <c r="V22" t="n">
-        <v>882.4408254406509</v>
+        <v>809.1713434488643</v>
       </c>
       <c r="W22" t="n">
-        <v>606.963871724033</v>
+        <v>533.6943897322462</v>
       </c>
       <c r="X22" t="n">
-        <v>392.9145371463582</v>
+        <v>319.6450551545715</v>
       </c>
       <c r="Y22" t="n">
-        <v>392.9145371463582</v>
+        <v>112.792692331384</v>
       </c>
     </row>
     <row r="23">
@@ -5975,7 +5975,7 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F23" t="n">
-        <v>904.3190116155887</v>
+        <v>904.3190116155884</v>
       </c>
       <c r="G23" t="n">
         <v>488.1932370805469</v>
@@ -6075,16 +6075,16 @@
         <v>534.5429807341674</v>
       </c>
       <c r="M24" t="n">
-        <v>1302.911127126629</v>
+        <v>841.863114014129</v>
       </c>
       <c r="N24" t="n">
-        <v>2051.878056918008</v>
+        <v>1646.27469227828</v>
       </c>
       <c r="O24" t="n">
-        <v>2331.418122136705</v>
+        <v>1925.814757496977</v>
       </c>
       <c r="P24" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q24" t="n">
         <v>2623.573505376138</v>
@@ -6121,22 +6121,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>275.5593342756835</v>
+        <v>252.2130580678501</v>
       </c>
       <c r="C25" t="n">
-        <v>275.5593342756835</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D25" t="n">
-        <v>275.5593342756835</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E25" t="n">
-        <v>275.5593342756835</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F25" t="n">
-        <v>275.5593342756835</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G25" t="n">
-        <v>233.6948835919998</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H25" t="n">
         <v>97.21709146028584</v>
@@ -6145,16 +6145,16 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J25" t="n">
-        <v>123.2625899397636</v>
+        <v>123.2625899397635</v>
       </c>
       <c r="K25" t="n">
-        <v>287.1108001999429</v>
+        <v>287.1108001999428</v>
       </c>
       <c r="L25" t="n">
-        <v>548.48565122664</v>
+        <v>548.4856512266399</v>
       </c>
       <c r="M25" t="n">
-        <v>833.7152000093906</v>
+        <v>833.7152000093904</v>
       </c>
       <c r="N25" t="n">
         <v>1117.922115052506</v>
@@ -6175,22 +6175,22 @@
         <v>1422.23892491834</v>
       </c>
       <c r="T25" t="n">
-        <v>1212.393726028189</v>
+        <v>1212.393726028188</v>
       </c>
       <c r="U25" t="n">
-        <v>937.2053035620896</v>
+        <v>975.2866464931999</v>
       </c>
       <c r="V25" t="n">
-        <v>696.4610316765454</v>
+        <v>734.5423746076556</v>
       </c>
       <c r="W25" t="n">
-        <v>696.4610316765454</v>
+        <v>459.0654208910377</v>
       </c>
       <c r="X25" t="n">
-        <v>482.4116970988708</v>
+        <v>459.0654208910377</v>
       </c>
       <c r="Y25" t="n">
-        <v>275.5593342756835</v>
+        <v>252.2130580678501</v>
       </c>
     </row>
     <row r="26">
@@ -6203,40 +6203,40 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C26" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D26" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E26" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F26" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155879</v>
       </c>
       <c r="G26" t="n">
-        <v>488.1932370805469</v>
+        <v>488.1932370805462</v>
       </c>
       <c r="H26" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I26" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J26" t="n">
-        <v>365.8813331823783</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K26" t="n">
-        <v>889.2841917514079</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L26" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M26" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N26" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O26" t="n">
         <v>3889.732883643323</v>
@@ -6251,22 +6251,22 @@
         <v>4860.854573014292</v>
       </c>
       <c r="S26" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T26" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U26" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V26" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W26" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X26" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y26" t="n">
         <v>2814.921224614724</v>
@@ -6318,13 +6318,13 @@
         <v>1771.104817265285</v>
       </c>
       <c r="O27" t="n">
-        <v>2050.644882483982</v>
+        <v>2320.788110039405</v>
       </c>
       <c r="P27" t="n">
-        <v>2328.464088060424</v>
+        <v>2525.810590821615</v>
       </c>
       <c r="Q27" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R27" t="n">
         <v>2623.573505376138</v>
@@ -6358,40 +6358,40 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>619.9567334796034</v>
+        <v>252.2130580678501</v>
       </c>
       <c r="C28" t="n">
-        <v>464.9607668720391</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D28" t="n">
-        <v>328.7843437800461</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E28" t="n">
-        <v>194.8114665179957</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F28" t="n">
-        <v>194.8114665179957</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G28" t="n">
-        <v>194.8114665179957</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H28" t="n">
-        <v>194.8114665179957</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I28" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J28" t="n">
-        <v>123.2625899397636</v>
+        <v>123.2625899397638</v>
       </c>
       <c r="K28" t="n">
-        <v>287.1108001999429</v>
+        <v>287.110800199943</v>
       </c>
       <c r="L28" t="n">
-        <v>548.48565122664</v>
+        <v>548.4856512266404</v>
       </c>
       <c r="M28" t="n">
-        <v>833.7152000093906</v>
+        <v>833.7152000093909</v>
       </c>
       <c r="N28" t="n">
         <v>1117.922115052506</v>
@@ -6406,28 +6406,28 @@
         <v>1608.218718682445</v>
       </c>
       <c r="R28" t="n">
-        <v>1608.218718682445</v>
+        <v>1511.083831564613</v>
       </c>
       <c r="S28" t="n">
-        <v>1422.23892491834</v>
+        <v>1325.104037800508</v>
       </c>
       <c r="T28" t="n">
-        <v>1212.393726028189</v>
+        <v>1115.258838910356</v>
       </c>
       <c r="U28" t="n">
-        <v>937.2053035620895</v>
+        <v>948.5917091853304</v>
       </c>
       <c r="V28" t="n">
-        <v>787.6649819895003</v>
+        <v>948.5917091853304</v>
       </c>
       <c r="W28" t="n">
-        <v>787.6649819895003</v>
+        <v>673.1147554687124</v>
       </c>
       <c r="X28" t="n">
-        <v>787.6649819895003</v>
+        <v>459.0654208910377</v>
       </c>
       <c r="Y28" t="n">
-        <v>787.6649819895003</v>
+        <v>252.2130580678501</v>
       </c>
     </row>
     <row r="29">
@@ -6440,31 +6440,31 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C29" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D29" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E29" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F29" t="n">
-        <v>904.3190116155887</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G29" t="n">
-        <v>488.1932370805469</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H29" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822458</v>
       </c>
       <c r="I29" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J29" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823781</v>
       </c>
       <c r="K29" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L29" t="n">
         <v>1590.888347795207</v>
@@ -6473,7 +6473,7 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N29" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O29" t="n">
         <v>3889.732883643323</v>
@@ -6494,16 +6494,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U29" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V29" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W29" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X29" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y29" t="n">
         <v>2814.921224614724</v>
@@ -6540,25 +6540,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J30" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K30" t="n">
-        <v>674.4285624571609</v>
+        <v>549.5984374701561</v>
       </c>
       <c r="L30" t="n">
-        <v>921.1936903636249</v>
+        <v>943.0172707642139</v>
       </c>
       <c r="M30" t="n">
-        <v>1228.513823643587</v>
+        <v>1711.385417156675</v>
       </c>
       <c r="N30" t="n">
-        <v>1558.376451307619</v>
+        <v>2041.248044820708</v>
       </c>
       <c r="O30" t="n">
-        <v>2112.811595180915</v>
+        <v>2320.788110039405</v>
       </c>
       <c r="P30" t="n">
-        <v>2317.834075963124</v>
+        <v>2525.810590821615</v>
       </c>
       <c r="Q30" t="n">
         <v>2612.943493278838</v>
@@ -6595,40 +6595,40 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>251.4521968201225</v>
+        <v>364.1396998999041</v>
       </c>
       <c r="C31" t="n">
-        <v>251.4521968201225</v>
+        <v>364.1396998999041</v>
       </c>
       <c r="D31" t="n">
-        <v>251.4521968201225</v>
+        <v>364.1396998999041</v>
       </c>
       <c r="E31" t="n">
-        <v>251.4521968201225</v>
+        <v>230.1668226378536</v>
       </c>
       <c r="F31" t="n">
-        <v>251.4521968201225</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G31" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H31" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I31" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J31" t="n">
-        <v>123.2625899397634</v>
+        <v>123.2625899397633</v>
       </c>
       <c r="K31" t="n">
-        <v>287.1108001999428</v>
+        <v>287.1108001999425</v>
       </c>
       <c r="L31" t="n">
-        <v>548.4856512266401</v>
+        <v>548.4856512266396</v>
       </c>
       <c r="M31" t="n">
-        <v>833.7152000093909</v>
+        <v>833.7152000093902</v>
       </c>
       <c r="N31" t="n">
         <v>1117.922115052506</v>
@@ -6637,34 +6637,34 @@
         <v>1365.459899073471</v>
       </c>
       <c r="P31" t="n">
-        <v>1555.722469694722</v>
+        <v>1555.722469694721</v>
       </c>
       <c r="Q31" t="n">
-        <v>1608.218718682446</v>
+        <v>1608.218718682445</v>
       </c>
       <c r="R31" t="n">
-        <v>1608.218718682446</v>
+        <v>1511.083831564613</v>
       </c>
       <c r="S31" t="n">
-        <v>1608.218718682446</v>
+        <v>1499.210886305857</v>
       </c>
       <c r="T31" t="n">
-        <v>1398.373519792294</v>
+        <v>1289.365687415706</v>
       </c>
       <c r="U31" t="n">
-        <v>1123.185097326195</v>
+        <v>1014.177264949607</v>
       </c>
       <c r="V31" t="n">
-        <v>882.4408254406507</v>
+        <v>1014.177264949607</v>
       </c>
       <c r="W31" t="n">
-        <v>606.9638717240327</v>
+        <v>738.7003112329886</v>
       </c>
       <c r="X31" t="n">
-        <v>392.9145371463581</v>
+        <v>738.7003112329886</v>
       </c>
       <c r="Y31" t="n">
-        <v>251.4521968201225</v>
+        <v>531.8479484098011</v>
       </c>
     </row>
     <row r="32">
@@ -6698,10 +6698,10 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J32" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K32" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L32" t="n">
         <v>1590.888347795206</v>
@@ -6777,28 +6777,28 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J33" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K33" t="n">
-        <v>412.6079778147081</v>
+        <v>549.5984374701561</v>
       </c>
       <c r="L33" t="n">
-        <v>659.3731057211721</v>
+        <v>1163.495507227045</v>
       </c>
       <c r="M33" t="n">
-        <v>966.6932390011339</v>
+        <v>1470.815640507006</v>
       </c>
       <c r="N33" t="n">
-        <v>1771.104817265285</v>
+        <v>1800.678268171039</v>
       </c>
       <c r="O33" t="n">
-        <v>2050.644882483982</v>
+        <v>2080.218333389736</v>
       </c>
       <c r="P33" t="n">
-        <v>2328.464088060424</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q33" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R33" t="n">
         <v>2623.573505376138</v>
@@ -6835,34 +6835,34 @@
         <v>659.4602391108328</v>
       </c>
       <c r="C34" t="n">
-        <v>559.3441472229671</v>
+        <v>559.344147222967</v>
       </c>
       <c r="D34" t="n">
-        <v>478.0475988506724</v>
+        <v>478.0475988506725</v>
       </c>
       <c r="E34" t="n">
         <v>398.9545963083204</v>
       </c>
       <c r="F34" t="n">
-        <v>320.8847398504512</v>
+        <v>320.8847398504511</v>
       </c>
       <c r="G34" t="n">
-        <v>221.5295092103129</v>
+        <v>221.5295092103128</v>
       </c>
       <c r="H34" t="n">
         <v>139.9315917982973</v>
       </c>
       <c r="I34" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J34" t="n">
         <v>177.05035515254</v>
       </c>
       <c r="K34" t="n">
-        <v>394.6863306254958</v>
+        <v>394.6863306254957</v>
       </c>
       <c r="L34" t="n">
-        <v>709.8489468649693</v>
+        <v>709.8489468649692</v>
       </c>
       <c r="M34" t="n">
         <v>1048.866260860496</v>
@@ -6929,7 +6929,7 @@
         <v>329.485680192289</v>
       </c>
       <c r="H35" t="n">
-        <v>89.93481253402931</v>
+        <v>89.93481253402933</v>
       </c>
       <c r="I35" t="n">
         <v>76.14971665211002</v>
@@ -6941,22 +6941,22 @@
         <v>868.2168169432326</v>
       </c>
       <c r="L35" t="n">
-        <v>1569.820972987031</v>
+        <v>1156.336370582085</v>
       </c>
       <c r="M35" t="n">
-        <v>1922.078928549017</v>
+        <v>1508.594326144071</v>
       </c>
       <c r="N35" t="n">
-        <v>2507.333261660453</v>
+        <v>2304.139447248102</v>
       </c>
       <c r="O35" t="n">
-        <v>2836.364143234531</v>
+        <v>3010.162508272298</v>
       </c>
       <c r="P35" t="n">
-        <v>3401.264108490334</v>
+        <v>3575.062473528101</v>
       </c>
       <c r="Q35" t="n">
-        <v>3748.258696799037</v>
+        <v>3807.4858326055</v>
       </c>
       <c r="R35" t="n">
         <v>3807.4858326055</v>
@@ -6968,10 +6968,10 @@
         <v>3600.244041813157</v>
       </c>
       <c r="U35" t="n">
-        <v>3415.449390176632</v>
+        <v>3415.449390176633</v>
       </c>
       <c r="V35" t="n">
-        <v>3153.206593873102</v>
+        <v>3153.206593873103</v>
       </c>
       <c r="W35" t="n">
         <v>2869.25802964303</v>
@@ -7026,13 +7026,13 @@
         <v>945.625864192958</v>
       </c>
       <c r="N36" t="n">
-        <v>1750.037442457109</v>
+        <v>1275.488491856991</v>
       </c>
       <c r="O36" t="n">
-        <v>2029.577507675806</v>
+        <v>1944.95225315965</v>
       </c>
       <c r="P36" t="n">
-        <v>2307.396713252248</v>
+        <v>2465.252874895397</v>
       </c>
       <c r="Q36" t="n">
         <v>2602.506130567962</v>
@@ -7069,22 +7069,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>638.3928643026572</v>
+        <v>638.392864302657</v>
       </c>
       <c r="C37" t="n">
-        <v>538.2767724147914</v>
+        <v>538.2767724147911</v>
       </c>
       <c r="D37" t="n">
-        <v>456.9802240424967</v>
+        <v>456.9802240424964</v>
       </c>
       <c r="E37" t="n">
-        <v>377.8872215001446</v>
+        <v>377.8872215001444</v>
       </c>
       <c r="F37" t="n">
-        <v>299.8173650422754</v>
+        <v>299.8173650422751</v>
       </c>
       <c r="G37" t="n">
-        <v>200.4621344021371</v>
+        <v>200.4621344021367</v>
       </c>
       <c r="H37" t="n">
         <v>118.8642169901215</v>
@@ -7096,10 +7096,10 @@
         <v>155.9829803443643</v>
       </c>
       <c r="K37" t="n">
-        <v>373.6189558173201</v>
+        <v>373.6189558173199</v>
       </c>
       <c r="L37" t="n">
-        <v>688.7815720567934</v>
+        <v>688.7815720567935</v>
       </c>
       <c r="M37" t="n">
         <v>1027.798886052321</v>
@@ -7120,25 +7120,25 @@
         <v>1975.198453178347</v>
       </c>
       <c r="S37" t="n">
-        <v>1844.098534133941</v>
+        <v>1844.09853413394</v>
       </c>
       <c r="T37" t="n">
-        <v>1689.133209963488</v>
+        <v>1689.133209963487</v>
       </c>
       <c r="U37" t="n">
-        <v>1468.824662217087</v>
+        <v>1468.824662217086</v>
       </c>
       <c r="V37" t="n">
-        <v>1282.960265051241</v>
+        <v>1282.96026505124</v>
       </c>
       <c r="W37" t="n">
         <v>1062.363186054321</v>
       </c>
       <c r="X37" t="n">
-        <v>903.1937261963451</v>
+        <v>903.1937261963445</v>
       </c>
       <c r="Y37" t="n">
-        <v>751.2212380928559</v>
+        <v>751.2212380928556</v>
       </c>
     </row>
     <row r="38">
@@ -7148,7 +7148,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1925.513372462138</v>
+        <v>1925.513372462139</v>
       </c>
       <c r="C38" t="n">
         <v>1625.370946561768</v>
@@ -7160,10 +7160,10 @@
         <v>1018.957177436856</v>
       </c>
       <c r="F38" t="n">
-        <v>676.7913636872892</v>
+        <v>676.7913636872895</v>
       </c>
       <c r="G38" t="n">
-        <v>329.4856801922883</v>
+        <v>329.4856801922887</v>
       </c>
       <c r="H38" t="n">
         <v>89.93481253402931</v>
@@ -7172,25 +7172,25 @@
         <v>76.14971665211002</v>
       </c>
       <c r="J38" t="n">
-        <v>177.4083093538499</v>
+        <v>344.8139583742029</v>
       </c>
       <c r="K38" t="n">
-        <v>379.9072094774265</v>
+        <v>547.3128584977795</v>
       </c>
       <c r="L38" t="n">
-        <v>1081.511365521224</v>
+        <v>1248.917014541578</v>
       </c>
       <c r="M38" t="n">
-        <v>1878.787719241115</v>
+        <v>1604.214937666074</v>
       </c>
       <c r="N38" t="n">
-        <v>2674.332840345146</v>
+        <v>2399.760058770104</v>
       </c>
       <c r="O38" t="n">
-        <v>3003.363721919224</v>
+        <v>3105.7831197943</v>
       </c>
       <c r="P38" t="n">
-        <v>3568.263687175027</v>
+        <v>3670.683085050103</v>
       </c>
       <c r="Q38" t="n">
         <v>3807.4858326055</v>
@@ -7199,16 +7199,16 @@
         <v>3807.4858326055</v>
       </c>
       <c r="S38" t="n">
-        <v>3742.012625862513</v>
+        <v>3742.012625862512</v>
       </c>
       <c r="T38" t="n">
-        <v>3600.244041813158</v>
+        <v>3600.244041813157</v>
       </c>
       <c r="U38" t="n">
         <v>3415.449390176632</v>
       </c>
       <c r="V38" t="n">
-        <v>3153.206593873102</v>
+        <v>3153.206593873103</v>
       </c>
       <c r="W38" t="n">
         <v>2869.258029643029</v>
@@ -7217,7 +7217,7 @@
         <v>2564.61236242199</v>
       </c>
       <c r="Y38" t="n">
-        <v>2243.293121486219</v>
+        <v>2243.29312148622</v>
       </c>
     </row>
     <row r="39">
@@ -7251,28 +7251,28 @@
         <v>76.14971665211002</v>
       </c>
       <c r="J39" t="n">
-        <v>242.4709188044724</v>
+        <v>117.6407938174676</v>
       </c>
       <c r="K39" t="n">
-        <v>653.361187648985</v>
+        <v>528.5310626619803</v>
       </c>
       <c r="L39" t="n">
-        <v>1267.258257405874</v>
+        <v>1142.428132418869</v>
       </c>
       <c r="M39" t="n">
-        <v>1690.3180423485</v>
+        <v>1449.748265698831</v>
       </c>
       <c r="N39" t="n">
-        <v>2020.180670012532</v>
+        <v>1779.610893362863</v>
       </c>
       <c r="O39" t="n">
-        <v>2299.720735231229</v>
+        <v>2102.374232470039</v>
       </c>
       <c r="P39" t="n">
-        <v>2504.743216013439</v>
+        <v>2307.396713252248</v>
       </c>
       <c r="Q39" t="n">
-        <v>2591.876118470662</v>
+        <v>2602.506130567962</v>
       </c>
       <c r="R39" t="n">
         <v>2602.506130567962</v>
@@ -7306,22 +7306,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>638.392864302657</v>
+        <v>638.3928643026568</v>
       </c>
       <c r="C40" t="n">
-        <v>538.2767724147911</v>
+        <v>538.2767724147909</v>
       </c>
       <c r="D40" t="n">
-        <v>456.9802240424964</v>
+        <v>456.9802240424963</v>
       </c>
       <c r="E40" t="n">
-        <v>377.8872215001444</v>
+        <v>377.8872215001443</v>
       </c>
       <c r="F40" t="n">
-        <v>299.8173650422754</v>
+        <v>299.8173650422751</v>
       </c>
       <c r="G40" t="n">
-        <v>200.4621344021371</v>
+        <v>200.4621344021368</v>
       </c>
       <c r="H40" t="n">
         <v>118.8642169901215</v>
@@ -7345,10 +7345,10 @@
         <v>1365.793566308212</v>
       </c>
       <c r="O40" t="n">
-        <v>1667.119115541953</v>
+        <v>1667.119115541954</v>
       </c>
       <c r="P40" t="n">
-        <v>1911.16945137598</v>
+        <v>1911.169451375981</v>
       </c>
       <c r="Q40" t="n">
         <v>2017.453465576481</v>
@@ -7357,7 +7357,7 @@
         <v>1975.198453178347</v>
       </c>
       <c r="S40" t="n">
-        <v>1844.09853413394</v>
+        <v>1844.098534133941</v>
       </c>
       <c r="T40" t="n">
         <v>1689.133209963487</v>
@@ -7366,16 +7366,16 @@
         <v>1468.824662217086</v>
       </c>
       <c r="V40" t="n">
-        <v>1282.960265051241</v>
+        <v>1282.96026505124</v>
       </c>
       <c r="W40" t="n">
         <v>1062.363186054321</v>
       </c>
       <c r="X40" t="n">
-        <v>903.1937261963446</v>
+        <v>903.1937261963444</v>
       </c>
       <c r="Y40" t="n">
-        <v>751.2212380928556</v>
+        <v>751.2212380928554</v>
       </c>
     </row>
     <row r="41">
@@ -7385,16 +7385,16 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1925.513372462138</v>
+        <v>1925.51337246214</v>
       </c>
       <c r="C41" t="n">
-        <v>1625.370946561768</v>
+        <v>1625.370946561769</v>
       </c>
       <c r="D41" t="n">
-        <v>1335.925338995058</v>
+        <v>1335.92533899506</v>
       </c>
       <c r="E41" t="n">
-        <v>1018.957177436855</v>
+        <v>1018.957177436856</v>
       </c>
       <c r="F41" t="n">
         <v>676.79136368729</v>
@@ -7409,52 +7409,52 @@
         <v>76.14971665211002</v>
       </c>
       <c r="J41" t="n">
-        <v>344.8139583742029</v>
+        <v>177.4083093538499</v>
       </c>
       <c r="K41" t="n">
-        <v>547.3128584977795</v>
+        <v>700.8111679228796</v>
       </c>
       <c r="L41" t="n">
-        <v>1248.917014541578</v>
+        <v>988.9307215617318</v>
       </c>
       <c r="M41" t="n">
-        <v>1601.174970103564</v>
+        <v>1341.188677123718</v>
       </c>
       <c r="N41" t="n">
-        <v>2396.720091207595</v>
+        <v>2136.733798227749</v>
       </c>
       <c r="O41" t="n">
-        <v>3102.74315223179</v>
+        <v>2842.756859251945</v>
       </c>
       <c r="P41" t="n">
-        <v>3460.491244296798</v>
+        <v>3407.656824507748</v>
       </c>
       <c r="Q41" t="n">
-        <v>3807.4858326055</v>
+        <v>3748.258696799037</v>
       </c>
       <c r="R41" t="n">
         <v>3807.4858326055</v>
       </c>
       <c r="S41" t="n">
-        <v>3742.012625862512</v>
+        <v>3742.012625862513</v>
       </c>
       <c r="T41" t="n">
-        <v>3600.244041813157</v>
+        <v>3600.244041813158</v>
       </c>
       <c r="U41" t="n">
-        <v>3415.449390176632</v>
+        <v>3415.449390176633</v>
       </c>
       <c r="V41" t="n">
-        <v>3153.206593873102</v>
+        <v>3153.206593873103</v>
       </c>
       <c r="W41" t="n">
-        <v>2869.258029643029</v>
+        <v>2869.25802964303</v>
       </c>
       <c r="X41" t="n">
-        <v>2564.61236242199</v>
+        <v>2564.612362421991</v>
       </c>
       <c r="Y41" t="n">
-        <v>2243.293121486219</v>
+        <v>2243.293121486221</v>
       </c>
     </row>
     <row r="42">
@@ -7488,28 +7488,28 @@
         <v>76.14971665211002</v>
       </c>
       <c r="J42" t="n">
-        <v>242.4709188044724</v>
+        <v>210.8369428939766</v>
       </c>
       <c r="K42" t="n">
-        <v>477.8382652883835</v>
+        <v>359.9066270960365</v>
       </c>
       <c r="L42" t="n">
-        <v>724.6033931948475</v>
+        <v>606.6717550025005</v>
       </c>
       <c r="M42" t="n">
-        <v>1492.971539587309</v>
+        <v>1375.039901394962</v>
       </c>
       <c r="N42" t="n">
-        <v>1822.834167251342</v>
+        <v>1704.902529058995</v>
       </c>
       <c r="O42" t="n">
-        <v>2102.374232470039</v>
+        <v>1984.442594277692</v>
       </c>
       <c r="P42" t="n">
-        <v>2307.396713252248</v>
+        <v>2504.743216013439</v>
       </c>
       <c r="Q42" t="n">
-        <v>2602.506130567962</v>
+        <v>2591.876118470662</v>
       </c>
       <c r="R42" t="n">
         <v>2602.506130567962</v>
@@ -7558,7 +7558,7 @@
         <v>299.8173650422751</v>
       </c>
       <c r="G43" t="n">
-        <v>200.4621344021367</v>
+        <v>200.4621344021368</v>
       </c>
       <c r="H43" t="n">
         <v>118.8642169901215</v>
@@ -7576,7 +7576,7 @@
         <v>688.7815720567933</v>
       </c>
       <c r="M43" t="n">
-        <v>1027.79888605232</v>
+        <v>1027.798886052321</v>
       </c>
       <c r="N43" t="n">
         <v>1365.793566308212</v>
@@ -7640,55 +7640,55 @@
         <v>329.485680192289</v>
       </c>
       <c r="H44" t="n">
-        <v>89.93481253402933</v>
+        <v>89.93481253402931</v>
       </c>
       <c r="I44" t="n">
         <v>76.14971665211002</v>
       </c>
       <c r="J44" t="n">
-        <v>344.8139583742029</v>
+        <v>288.6267901302494</v>
       </c>
       <c r="K44" t="n">
-        <v>590.7154876889653</v>
+        <v>491.1256902538261</v>
       </c>
       <c r="L44" t="n">
-        <v>1292.319643732763</v>
+        <v>1192.729846297624</v>
       </c>
       <c r="M44" t="n">
-        <v>2089.595997452654</v>
+        <v>1544.98780185961</v>
       </c>
       <c r="N44" t="n">
-        <v>2885.141118556685</v>
+        <v>2340.532922963641</v>
       </c>
       <c r="O44" t="n">
-        <v>3214.172000130763</v>
+        <v>3046.555983987837</v>
       </c>
       <c r="P44" t="n">
-        <v>3460.491244296798</v>
+        <v>3611.45594924364</v>
       </c>
       <c r="Q44" t="n">
-        <v>3807.4858326055</v>
+        <v>3748.258696799037</v>
       </c>
       <c r="R44" t="n">
         <v>3807.4858326055</v>
       </c>
       <c r="S44" t="n">
-        <v>3742.012625862514</v>
+        <v>3742.012625862512</v>
       </c>
       <c r="T44" t="n">
-        <v>3600.244041813159</v>
+        <v>3600.244041813157</v>
       </c>
       <c r="U44" t="n">
-        <v>3415.449390176633</v>
+        <v>3415.449390176632</v>
       </c>
       <c r="V44" t="n">
-        <v>3153.206593873103</v>
+        <v>3153.206593873102</v>
       </c>
       <c r="W44" t="n">
-        <v>2869.25802964303</v>
+        <v>2869.258029643029</v>
       </c>
       <c r="X44" t="n">
-        <v>2564.612362421991</v>
+        <v>2564.61236242199</v>
       </c>
       <c r="Y44" t="n">
         <v>2243.293121486221</v>
@@ -7725,28 +7725,28 @@
         <v>76.14971665211002</v>
       </c>
       <c r="J45" t="n">
-        <v>242.4709188044724</v>
+        <v>117.6407938174676</v>
       </c>
       <c r="K45" t="n">
-        <v>464.3373278007654</v>
+        <v>431.0309441245739</v>
       </c>
       <c r="L45" t="n">
-        <v>711.1024557072294</v>
+        <v>677.796072031038</v>
       </c>
       <c r="M45" t="n">
-        <v>1018.422588987191</v>
+        <v>985.1162053109997</v>
       </c>
       <c r="N45" t="n">
-        <v>1822.834167251342</v>
+        <v>1314.978832975032</v>
       </c>
       <c r="O45" t="n">
-        <v>2102.374232470039</v>
+        <v>1984.442594277692</v>
       </c>
       <c r="P45" t="n">
-        <v>2307.396713252248</v>
+        <v>2504.743216013439</v>
       </c>
       <c r="Q45" t="n">
-        <v>2602.506130567962</v>
+        <v>2591.876118470662</v>
       </c>
       <c r="R45" t="n">
         <v>2602.506130567962</v>
@@ -7780,37 +7780,37 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>638.3928643026571</v>
+        <v>638.3928643026572</v>
       </c>
       <c r="C46" t="n">
-        <v>538.2767724147913</v>
+        <v>538.2767724147914</v>
       </c>
       <c r="D46" t="n">
-        <v>456.9802240424966</v>
+        <v>456.9802240424967</v>
       </c>
       <c r="E46" t="n">
-        <v>377.8872215001445</v>
+        <v>377.8872215001446</v>
       </c>
       <c r="F46" t="n">
-        <v>299.8173650422752</v>
+        <v>299.8173650422753</v>
       </c>
       <c r="G46" t="n">
-        <v>200.4621344021368</v>
+        <v>200.462134402137</v>
       </c>
       <c r="H46" t="n">
-        <v>118.8642169901215</v>
+        <v>118.8642169901213</v>
       </c>
       <c r="I46" t="n">
         <v>76.14971665211002</v>
       </c>
       <c r="J46" t="n">
-        <v>155.9829803443641</v>
+        <v>155.9829803443639</v>
       </c>
       <c r="K46" t="n">
-        <v>373.6189558173199</v>
+        <v>373.6189558173198</v>
       </c>
       <c r="L46" t="n">
-        <v>688.7815720567935</v>
+        <v>688.7815720567933</v>
       </c>
       <c r="M46" t="n">
         <v>1027.79888605232</v>
@@ -7831,13 +7831,13 @@
         <v>1975.198453178347</v>
       </c>
       <c r="S46" t="n">
-        <v>1844.098534133941</v>
+        <v>1844.09853413394</v>
       </c>
       <c r="T46" t="n">
-        <v>1689.133209963488</v>
+        <v>1689.133209963487</v>
       </c>
       <c r="U46" t="n">
-        <v>1468.824662217087</v>
+        <v>1468.824662217086</v>
       </c>
       <c r="V46" t="n">
         <v>1282.960265051241</v>
@@ -7846,7 +7846,7 @@
         <v>1062.363186054321</v>
       </c>
       <c r="X46" t="n">
-        <v>903.1937261963451</v>
+        <v>903.1937261963449</v>
       </c>
       <c r="Y46" t="n">
         <v>751.2212380928559</v>
@@ -8055,28 +8055,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>119.7207117878867</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
-        <v>125.6774978810002</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L3" t="n">
-        <v>370.8403453034592</v>
+        <v>239.6115747153265</v>
       </c>
       <c r="M3" t="n">
         <v>399.2039605324505</v>
       </c>
       <c r="N3" t="n">
-        <v>387.9064735273546</v>
+        <v>387.9064735273547</v>
       </c>
       <c r="O3" t="n">
-        <v>218.3140732255139</v>
+        <v>124.673618687554</v>
       </c>
       <c r="P3" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>130.3661252938572</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8292,28 +8292,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>107.3907581947619</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
-        <v>104.603643304236</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L6" t="n">
-        <v>370.8403453034592</v>
+        <v>274.4097730489922</v>
       </c>
       <c r="M6" t="n">
-        <v>436.6197695600447</v>
+        <v>436.6197695600449</v>
       </c>
       <c r="N6" t="n">
-        <v>302.7091323608078</v>
+        <v>424.4470911040468</v>
       </c>
       <c r="O6" t="n">
-        <v>393.8623192767295</v>
+        <v>93.6229250073049</v>
       </c>
       <c r="P6" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>113.7071508091859</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8529,7 +8529,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>50.07369958270193</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
         <v>264.4652370125786</v>
@@ -8550,7 +8550,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>166.6588033951781</v>
+        <v>90.64146763747121</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8702,13 +8702,13 @@
         <v>437.3469244119842</v>
       </c>
       <c r="O11" t="n">
-        <v>380.8001812627454</v>
+        <v>380.8001812627452</v>
       </c>
       <c r="P11" t="n">
         <v>321.7987081714826</v>
       </c>
       <c r="Q11" t="n">
-        <v>212.3149906599049</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R11" t="n">
         <v>65.71641987298243</v>
@@ -8766,10 +8766,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J12" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>234.4116509503166</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
@@ -8781,13 +8781,13 @@
         <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P12" t="n">
-        <v>318.4627686399372</v>
+        <v>230.7151863772038</v>
       </c>
       <c r="Q12" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
         <v>34.78428385445217</v>
@@ -8933,7 +8933,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M14" t="n">
-        <v>449.5135334928325</v>
+        <v>449.5135334928324</v>
       </c>
       <c r="N14" t="n">
         <v>437.3469244119842</v>
@@ -8945,7 +8945,7 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q14" t="n">
-        <v>212.3149906599049</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R14" t="n">
         <v>65.71641987298243</v>
@@ -9006,7 +9006,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
@@ -9015,19 +9015,19 @@
         <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P15" t="n">
-        <v>73.53204524670008</v>
+        <v>93.88676507992591</v>
       </c>
       <c r="Q15" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>34.78428385445217</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9161,7 +9161,7 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>169.0966151720736</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K17" t="n">
         <v>324.1454125711647</v>
@@ -9182,7 +9182,7 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q17" t="n">
-        <v>212.3149906599047</v>
+        <v>212.3149906599049</v>
       </c>
       <c r="R17" t="n">
         <v>65.71641987298243</v>
@@ -9243,13 +9243,13 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K18" t="n">
-        <v>234.4116509503166</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M18" t="n">
-        <v>0</v>
+        <v>62.91120742583797</v>
       </c>
       <c r="N18" t="n">
         <v>0</v>
@@ -9261,10 +9261,10 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q18" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>34.78428385445217</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9477,7 +9477,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J21" t="n">
-        <v>126.0910353404088</v>
+        <v>96.03744927814688</v>
       </c>
       <c r="K21" t="n">
         <v>264.4652370125786</v>
@@ -9486,7 +9486,7 @@
         <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>288.4091825776751</v>
+        <v>0</v>
       </c>
       <c r="N21" t="n">
         <v>0</v>
@@ -9495,7 +9495,7 @@
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q21" t="n">
         <v>210.0772877358491</v>
@@ -9656,10 +9656,10 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q23" t="n">
-        <v>212.3149906599047</v>
+        <v>212.3149906599049</v>
       </c>
       <c r="R23" t="n">
-        <v>65.716419872982</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9723,19 +9723,19 @@
         <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>423.3376789165115</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O24" t="n">
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>199.623080587109</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R24" t="n">
         <v>34.78428385445217</v>
@@ -9881,7 +9881,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M26" t="n">
-        <v>449.5135334928325</v>
+        <v>449.5135334928324</v>
       </c>
       <c r="N26" t="n">
         <v>437.3469244119842</v>
@@ -9966,16 +9966,16 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O27" t="n">
-        <v>0</v>
+        <v>272.8719470256804</v>
       </c>
       <c r="P27" t="n">
-        <v>73.53204524670008</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>34.78428385445217</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10121,7 +10121,7 @@
         <v>449.5135334928325</v>
       </c>
       <c r="N29" t="n">
-        <v>437.3469244119843</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O29" t="n">
         <v>380.8001812627454</v>
@@ -10188,28 +10188,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J30" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>148.1350559470644</v>
       </c>
       <c r="M30" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N30" t="n">
         <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>277.6717966208062</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
         <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
         <v>45.52166981132082</v>
@@ -10346,13 +10346,13 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>169.0966151720736</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K32" t="n">
         <v>324.1454125711647</v>
       </c>
       <c r="L32" t="n">
-        <v>417.6612145504504</v>
+        <v>417.6612145504502</v>
       </c>
       <c r="M32" t="n">
         <v>449.5135334928325</v>
@@ -10425,31 +10425,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J33" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M33" t="n">
         <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>73.53204524670008</v>
+        <v>32.9224866577558</v>
       </c>
       <c r="Q33" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R33" t="n">
-        <v>34.78428385445217</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10589,25 +10589,25 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L35" t="n">
-        <v>417.6612145504504</v>
+        <v>0</v>
       </c>
       <c r="M35" t="n">
         <v>0</v>
       </c>
       <c r="N35" t="n">
-        <v>224.9319870457272</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O35" t="n">
-        <v>0</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P35" t="n">
         <v>321.7987081714826</v>
       </c>
       <c r="Q35" t="n">
-        <v>212.3149906599047</v>
+        <v>96.58647628485107</v>
       </c>
       <c r="R35" t="n">
-        <v>65.71641987298243</v>
+        <v>5.891030169484338</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10674,16 +10674,16 @@
         <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P36" t="n">
-        <v>73.53204524670031</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q36" t="n">
-        <v>210.0772877358491</v>
+        <v>50.62661940943602</v>
       </c>
       <c r="R36" t="n">
         <v>34.78428385445217</v>
@@ -10820,7 +10820,7 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K38" t="n">
         <v>0</v>
@@ -10829,19 +10829,19 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M38" t="n">
-        <v>449.5135334928325</v>
+        <v>3.070674305565262</v>
       </c>
       <c r="N38" t="n">
         <v>437.3469244119842</v>
       </c>
       <c r="O38" t="n">
-        <v>0</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P38" t="n">
         <v>321.7987081714826</v>
       </c>
       <c r="Q38" t="n">
-        <v>103.4539372475519</v>
+        <v>0</v>
       </c>
       <c r="R38" t="n">
         <v>5.891030169484338</v>
@@ -10899,7 +10899,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J39" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
         <v>264.4652370125786</v>
@@ -10908,22 +10908,22 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M39" t="n">
-        <v>116.9087390531961</v>
+        <v>0</v>
       </c>
       <c r="N39" t="n">
         <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>0</v>
+        <v>43.65987261462453</v>
       </c>
       <c r="P39" t="n">
         <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R39" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11057,13 +11057,13 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K41" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L41" t="n">
-        <v>417.6612145504504</v>
+        <v>0</v>
       </c>
       <c r="M41" t="n">
         <v>0</v>
@@ -11075,13 +11075,13 @@
         <v>380.8001812627454</v>
       </c>
       <c r="P41" t="n">
-        <v>112.5543918171438</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q41" t="n">
-        <v>212.3149906599047</v>
+        <v>205.8577017534266</v>
       </c>
       <c r="R41" t="n">
-        <v>5.891030169484338</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11136,10 +11136,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J42" t="n">
-        <v>126.0910353404088</v>
+        <v>94.13752431970605</v>
       </c>
       <c r="K42" t="n">
-        <v>87.16935584025379</v>
+        <v>0</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
@@ -11154,13 +11154,13 @@
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q42" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>34.78428385445217</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11294,31 +11294,31 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>169.0966151720738</v>
+        <v>112.341899774141</v>
       </c>
       <c r="K44" t="n">
-        <v>43.84103958705631</v>
+        <v>0</v>
       </c>
       <c r="L44" t="n">
         <v>417.6612145504504</v>
       </c>
       <c r="M44" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N44" t="n">
         <v>437.3469244119842</v>
       </c>
       <c r="O44" t="n">
-        <v>0</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P44" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q44" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>5.891030169484338</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -11373,10 +11373,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J45" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>73.53204524670016</v>
+        <v>165.9802687929762</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
@@ -11385,19 +11385,19 @@
         <v>0</v>
       </c>
       <c r="N45" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q45" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>34.78428385445217</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -23413,19 +23413,19 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>124.7581098799113</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
         <v>166.4935684633776</v>
@@ -23461,22 +23461,22 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>10.08817004149503</v>
       </c>
       <c r="T13" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
@@ -23653,13 +23653,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
         <v>145.4210480229312</v>
@@ -23668,7 +23668,7 @@
         <v>166.4935684633776</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I16" t="n">
         <v>110.419245464272</v>
@@ -23698,28 +23698,28 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>154.9432766539119</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>189.395277880884</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -23887,10 +23887,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
         <v>148.6154730182124</v>
@@ -23902,7 +23902,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>50.96659166316023</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H19" t="n">
         <v>148.9138283675361</v>
@@ -23938,7 +23938,7 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S19" t="n">
-        <v>197.9208099836032</v>
+        <v>135.8246340904179</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -23950,13 +23950,13 @@
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -24124,28 +24124,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>105.022140313116</v>
+        <v>166.0311660247981</v>
       </c>
       <c r="C22" t="n">
         <v>153.4460069414886</v>
       </c>
       <c r="D22" t="n">
-        <v>134.8146588610731</v>
+        <v>119.3948139986858</v>
       </c>
       <c r="E22" t="n">
-        <v>132.6331484894299</v>
+        <v>132.63314848943</v>
       </c>
       <c r="F22" t="n">
         <v>131.620233865792</v>
       </c>
       <c r="G22" t="n">
-        <v>152.6927543062383</v>
+        <v>152.6927543062384</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>135.1130142103969</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>96.61843130713279</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24172,13 +24172,13 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>96.16353824665352</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>184.119995826464</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>207.74674690125</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
@@ -24193,7 +24193,7 @@
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>204.7838391949555</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -24361,28 +24361,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>166.031166024798</v>
+        <v>166.0311660247981</v>
       </c>
       <c r="C25" t="n">
-        <v>153.4460069414886</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>134.8146588610731</v>
+        <v>134.8146588610732</v>
       </c>
       <c r="E25" t="n">
-        <v>132.6331484894299</v>
+        <v>132.63314848943</v>
       </c>
       <c r="F25" t="n">
         <v>131.620233865792</v>
       </c>
       <c r="G25" t="n">
-        <v>111.2469481293916</v>
+        <v>152.6927543062384</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>135.1130142103969</v>
       </c>
       <c r="I25" t="n">
-        <v>96.61843130713271</v>
+        <v>96.61843130713277</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24409,7 +24409,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>96.16353824665352</v>
+        <v>96.16353824665359</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -24418,16 +24418,16 @@
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>37.70052950179971</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>272.7221841794517</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>211.908841231898</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -24598,28 +24598,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>166.0311660247981</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>134.8146588610732</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>132.63314848943</v>
       </c>
       <c r="F28" t="n">
         <v>131.620233865792</v>
       </c>
       <c r="G28" t="n">
-        <v>152.6927543062383</v>
+        <v>152.6927543062384</v>
       </c>
       <c r="H28" t="n">
-        <v>135.1130142103968</v>
+        <v>135.1130142103969</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>96.61843130713279</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24646,7 +24646,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>96.16353824665352</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -24655,19 +24655,19 @@
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>107.4360798136624</v>
       </c>
       <c r="V28" t="n">
-        <v>90.29191080982564</v>
+        <v>238.3368291666888</v>
       </c>
       <c r="W28" t="n">
-        <v>272.7221841794517</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>211.9088412318979</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>204.7838391949555</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -24835,28 +24835,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>166.031166024798</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
         <v>153.4460069414886</v>
       </c>
       <c r="D31" t="n">
-        <v>134.8146588610731</v>
+        <v>134.8146588610732</v>
       </c>
       <c r="E31" t="n">
-        <v>132.6331484894299</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>131.620233865792</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>152.6927543062384</v>
       </c>
       <c r="H31" t="n">
-        <v>135.1130142103968</v>
+        <v>135.1130142103969</v>
       </c>
       <c r="I31" t="n">
-        <v>96.61843130713271</v>
+        <v>96.61843130713279</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24883,10 +24883,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>96.16353824665352</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>184.119995826464</v>
+        <v>172.3657800202957</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -24895,16 +24895,16 @@
         <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>238.3368291666888</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>211.908841231898</v>
       </c>
       <c r="Y31" t="n">
-        <v>64.73612227198232</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>863934.6532417785</v>
+        <v>863934.6532417784</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>872226.0189857484</v>
+        <v>872226.0189857482</v>
       </c>
     </row>
     <row r="9">
@@ -26179,7 +26179,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>872226.0189857483</v>
+        <v>872226.0189857484</v>
       </c>
     </row>
     <row r="10">
@@ -26187,7 +26187,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>872226.0189857484</v>
+        <v>872226.0189857483</v>
       </c>
     </row>
     <row r="11">
@@ -26311,49 +26311,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>574729.2389049983</v>
+        <v>574729.2389049981</v>
       </c>
       <c r="C2" t="n">
-        <v>574729.2389049985</v>
+        <v>574729.2389049982</v>
       </c>
       <c r="D2" t="n">
-        <v>574729.2389049991</v>
+        <v>574729.2389049986</v>
       </c>
       <c r="E2" t="n">
-        <v>547440.6836327922</v>
+        <v>547440.6836327926</v>
       </c>
       <c r="F2" t="n">
         <v>547440.6836327922</v>
       </c>
       <c r="G2" t="n">
-        <v>547440.6836327922</v>
+        <v>547440.683632792</v>
       </c>
       <c r="H2" t="n">
         <v>552968.2607954381</v>
       </c>
       <c r="I2" t="n">
-        <v>552968.2607954387</v>
+        <v>552968.2607954384</v>
       </c>
       <c r="J2" t="n">
-        <v>552968.2607954381</v>
+        <v>552968.2607954382</v>
       </c>
       <c r="K2" t="n">
-        <v>552968.2607954383</v>
+        <v>552968.2607954384</v>
       </c>
       <c r="L2" t="n">
-        <v>574729.2389049976</v>
+        <v>574729.2389049979</v>
       </c>
       <c r="M2" t="n">
+        <v>574729.238904999</v>
+      </c>
+      <c r="N2" t="n">
+        <v>574729.238904999</v>
+      </c>
+      <c r="O2" t="n">
         <v>574729.2389049988</v>
       </c>
-      <c r="N2" t="n">
-        <v>574729.2389049988</v>
-      </c>
-      <c r="O2" t="n">
-        <v>574729.2389049986</v>
-      </c>
       <c r="P2" t="n">
-        <v>574729.2389049986</v>
+        <v>574729.238904999</v>
       </c>
     </row>
     <row r="3">
@@ -26366,10 +26366,10 @@
         <v>126293.3414468129</v>
       </c>
       <c r="C3" t="n">
-        <v>78020.72258093595</v>
+        <v>78020.72258093646</v>
       </c>
       <c r="D3" t="n">
-        <v>343327.5508291559</v>
+        <v>343327.5508291554</v>
       </c>
       <c r="E3" t="n">
         <v>525160.0364768961</v>
@@ -26381,22 +26381,22 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>11040.65132571142</v>
+        <v>11040.65132571135</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>72254.69487113907</v>
+        <v>72254.69487113909</v>
       </c>
       <c r="K3" t="n">
-        <v>18140.0813888351</v>
+        <v>18140.08138883521</v>
       </c>
       <c r="L3" t="n">
-        <v>126389.5473295812</v>
+        <v>126389.5473295811</v>
       </c>
       <c r="M3" t="n">
-        <v>80215.74066334042</v>
+        <v>80215.74066334034</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26418,7 +26418,7 @@
         <v>316926.9684369123</v>
       </c>
       <c r="C4" t="n">
-        <v>294843.9996963377</v>
+        <v>294843.9996963376</v>
       </c>
       <c r="D4" t="n">
         <v>192206.5963924297</v>
@@ -26427,37 +26427,37 @@
         <v>43561.42148316556</v>
       </c>
       <c r="F4" t="n">
-        <v>43561.42148316557</v>
+        <v>43561.42148316556</v>
       </c>
       <c r="G4" t="n">
         <v>43561.42148316556</v>
       </c>
       <c r="H4" t="n">
-        <v>48102.57711171471</v>
+        <v>48102.57711171468</v>
       </c>
       <c r="I4" t="n">
-        <v>48102.57711171469</v>
+        <v>48102.57711171467</v>
       </c>
       <c r="J4" t="n">
-        <v>48102.57711171469</v>
+        <v>48102.57711171467</v>
       </c>
       <c r="K4" t="n">
-        <v>48102.57711171469</v>
+        <v>48102.57711171467</v>
       </c>
       <c r="L4" t="n">
         <v>65980.20872448603</v>
       </c>
       <c r="M4" t="n">
-        <v>99837.12979766786</v>
+        <v>99837.12979766788</v>
       </c>
       <c r="N4" t="n">
         <v>99837.12979766782</v>
       </c>
       <c r="O4" t="n">
+        <v>99837.12979766785</v>
+      </c>
+      <c r="P4" t="n">
         <v>99837.12979766788</v>
-      </c>
-      <c r="P4" t="n">
-        <v>99837.12979766786</v>
       </c>
     </row>
     <row r="5">
@@ -26470,7 +26470,7 @@
         <v>51181.37951678014</v>
       </c>
       <c r="C5" t="n">
-        <v>56789.43850811559</v>
+        <v>56789.43850811563</v>
       </c>
       <c r="D5" t="n">
         <v>82859.07806340946</v>
@@ -26485,16 +26485,16 @@
         <v>91987.32594871664</v>
       </c>
       <c r="H5" t="n">
-        <v>93147.54659409318</v>
+        <v>93147.54659409316</v>
       </c>
       <c r="I5" t="n">
-        <v>93147.54659409318</v>
+        <v>93147.54659409316</v>
       </c>
       <c r="J5" t="n">
-        <v>93147.54659409318</v>
+        <v>93147.54659409316</v>
       </c>
       <c r="K5" t="n">
-        <v>93147.54659409318</v>
+        <v>93147.54659409316</v>
       </c>
       <c r="L5" t="n">
         <v>97715.10582002539</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>80327.5495044929</v>
+        <v>80327.54950449266</v>
       </c>
       <c r="C6" t="n">
-        <v>145075.0781196093</v>
+        <v>145075.0781196085</v>
       </c>
       <c r="D6" t="n">
-        <v>-43663.98637999597</v>
+        <v>-43663.98637999591</v>
       </c>
       <c r="E6" t="n">
-        <v>-113268.1002759861</v>
+        <v>-113365.5594019579</v>
       </c>
       <c r="F6" t="n">
-        <v>411891.93620091</v>
+        <v>411794.4770749378</v>
       </c>
       <c r="G6" t="n">
-        <v>411891.93620091</v>
+        <v>411794.4770749376</v>
       </c>
       <c r="H6" t="n">
-        <v>400677.4857639188</v>
+        <v>400599.7679849562</v>
       </c>
       <c r="I6" t="n">
-        <v>411718.1370896308</v>
+        <v>411640.419310668</v>
       </c>
       <c r="J6" t="n">
-        <v>339463.4422184911</v>
+        <v>339385.7244395286</v>
       </c>
       <c r="K6" t="n">
-        <v>393578.0557007954</v>
+        <v>393500.3379218327</v>
       </c>
       <c r="L6" t="n">
-        <v>284644.377030905</v>
+        <v>284644.3770309054</v>
       </c>
       <c r="M6" t="n">
-        <v>312972.4674781787</v>
+        <v>312972.4674781791</v>
       </c>
       <c r="N6" t="n">
+        <v>393188.2081415194</v>
+      </c>
+      <c r="O6" t="n">
         <v>393188.2081415192</v>
       </c>
-      <c r="O6" t="n">
-        <v>393188.208141519</v>
-      </c>
       <c r="P6" t="n">
-        <v>393188.208141519</v>
+        <v>393188.2081415194</v>
       </c>
     </row>
   </sheetData>
@@ -26701,22 +26701,22 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>13.80081415713927</v>
+        <v>13.80081415713919</v>
       </c>
       <c r="I2" t="n">
-        <v>13.80081415713927</v>
+        <v>13.80081415713919</v>
       </c>
       <c r="J2" t="n">
-        <v>13.80081415713927</v>
+        <v>13.80081415713919</v>
       </c>
       <c r="K2" t="n">
-        <v>13.80081415713927</v>
+        <v>13.80081415713919</v>
       </c>
       <c r="L2" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="M2" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="N2" t="n">
         <v>68.13189012964065</v>
@@ -26725,7 +26725,7 @@
         <v>68.13189012964065</v>
       </c>
       <c r="P2" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964065</v>
       </c>
     </row>
     <row r="3">
@@ -26738,7 +26738,7 @@
         <v>35.02126071912529</v>
       </c>
       <c r="C3" t="n">
-        <v>95.69509577187254</v>
+        <v>95.69509577187294</v>
       </c>
       <c r="D3" t="n">
         <v>377.7436642170866</v>
@@ -26790,7 +26790,7 @@
         <v>276.1565137023554</v>
       </c>
       <c r="C4" t="n">
-        <v>346.6395628336969</v>
+        <v>346.6395628336974</v>
       </c>
       <c r="D4" t="n">
         <v>674.2872727545556</v>
@@ -26923,7 +26923,7 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>13.80081415713927</v>
+        <v>13.80081415713919</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -26935,10 +26935,10 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>54.33107597250141</v>
+        <v>54.33107597250147</v>
       </c>
       <c r="M2" t="n">
-        <v>13.80081415713924</v>
+        <v>13.80081415713916</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
@@ -26960,10 +26960,10 @@
         <v>35.02126071912529</v>
       </c>
       <c r="C3" t="n">
-        <v>60.67383505274725</v>
+        <v>60.67383505274765</v>
       </c>
       <c r="D3" t="n">
-        <v>282.0485684452141</v>
+        <v>282.0485684452137</v>
       </c>
       <c r="E3" t="n">
         <v>452.6387412370137</v>
@@ -27012,10 +27012,10 @@
         <v>276.1565137023554</v>
       </c>
       <c r="C4" t="n">
-        <v>70.4830491313415</v>
+        <v>70.48304913134193</v>
       </c>
       <c r="D4" t="n">
-        <v>327.6477099208587</v>
+        <v>327.6477099208582</v>
       </c>
       <c r="E4" t="n">
         <v>540.9263704990175</v>
@@ -27036,10 +27036,10 @@
         <v>276.1565137023554</v>
       </c>
       <c r="K4" t="n">
-        <v>70.4830491313415</v>
+        <v>70.48304913134193</v>
       </c>
       <c r="L4" t="n">
-        <v>327.6477099208587</v>
+        <v>327.6477099208582</v>
       </c>
       <c r="M4" t="n">
         <v>277.5841853968195</v>
@@ -27160,7 +27160,7 @@
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>13.80081415713927</v>
+        <v>13.80081415713919</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
@@ -27258,10 +27258,10 @@
         <v>276.1565137023554</v>
       </c>
       <c r="K4" t="n">
-        <v>70.4830491313415</v>
+        <v>70.48304913134193</v>
       </c>
       <c r="L4" t="n">
-        <v>327.6477099208587</v>
+        <v>327.6477099208582</v>
       </c>
       <c r="M4" t="n">
         <v>540.9263704990175</v>
@@ -27382,7 +27382,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>204.162987130001</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
         <v>381.9303700722618</v>
@@ -27394,7 +27394,7 @@
         <v>400</v>
       </c>
       <c r="H2" t="n">
-        <v>338.0329468943008</v>
+        <v>244.1450325747641</v>
       </c>
       <c r="I2" t="n">
         <v>205.0481221176458</v>
@@ -27424,28 +27424,28 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>141.0252816852793</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>222.4795457699687</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>251.3343897888113</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>51.59574476777948</v>
       </c>
       <c r="W2" t="n">
-        <v>73.08445501505759</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>110.0814249536982</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -27458,10 +27458,10 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D3" t="n">
-        <v>59.23481795692803</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E3" t="n">
         <v>157.6450804554009</v>
@@ -27470,10 +27470,10 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
-        <v>137.2681884137393</v>
+        <v>86.99732671577635</v>
       </c>
       <c r="H3" t="n">
-        <v>111.5079271034444</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>86.80307722268741</v>
@@ -27503,28 +27503,28 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>95.48084390037957</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>170.2839726213331</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
         <v>199.8611009721718</v>
       </c>
       <c r="U3" t="n">
-        <v>225.9364262421938</v>
+        <v>0</v>
       </c>
       <c r="V3" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W3" t="n">
-        <v>251.6949831609196</v>
+        <v>0</v>
       </c>
       <c r="X3" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y3" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="4">
@@ -27588,13 +27588,13 @@
         <v>222.9160118599466</v>
       </c>
       <c r="T4" t="n">
-        <v>52.54455953715794</v>
+        <v>227.6757534850358</v>
       </c>
       <c r="U4" t="n">
         <v>286.3155846423218</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>77.00644937595015</v>
       </c>
       <c r="W4" t="n">
         <v>286.522998336591</v>
@@ -27613,13 +27613,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>36.09427882978366</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>207.4503056007549</v>
+        <v>292.0540428513931</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>8.043478786985588</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
@@ -27631,10 +27631,10 @@
         <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>335.5349532732599</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>195.6445923654004</v>
+        <v>195.6445923654003</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27661,13 +27661,13 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>125.7034614194214</v>
       </c>
       <c r="S5" t="n">
         <v>200.2536294057366</v>
       </c>
       <c r="T5" t="n">
-        <v>221.4118082304977</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>251.3148765956284</v>
@@ -27676,13 +27676,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>2.601405883715643</v>
       </c>
       <c r="X5" t="n">
-        <v>23.09153784477212</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>39.59837582235667</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -27692,16 +27692,16 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
+        <v>151.4037802782643</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D6" t="n">
         <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>44.55345641567548</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F6" t="n">
         <v>145.0692123933839</v>
@@ -27713,7 +27713,7 @@
         <v>110.2475140394242</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>82.30977906076222</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -27740,19 +27740,19 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>87.37802494748627</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
         <v>167.8598811925748</v>
       </c>
       <c r="T6" t="n">
-        <v>199.3350702701579</v>
+        <v>0</v>
       </c>
       <c r="U6" t="n">
         <v>225.9278403221392</v>
       </c>
       <c r="V6" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W6" t="n">
         <v>0</v>
@@ -27774,16 +27774,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>39.43501073575474</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
         <v>167.818414431657</v>
@@ -27795,10 +27795,10 @@
         <v>150.2609769467115</v>
       </c>
       <c r="J7" t="n">
-        <v>81.15883979178994</v>
+        <v>81.15883979178989</v>
       </c>
       <c r="K7" t="n">
-        <v>2.220584875644644</v>
+        <v>2.220584875644562</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
@@ -27816,7 +27816,7 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>71.71208379014163</v>
+        <v>71.71208379014158</v>
       </c>
       <c r="R7" t="n">
         <v>169.5342447593386</v>
@@ -27840,7 +27840,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>133.4114745169765</v>
       </c>
     </row>
     <row r="8">
@@ -27850,28 +27850,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>123.7805811116556</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
         <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27904,13 +27904,13 @@
         <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
@@ -27919,7 +27919,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>277.8129518787938</v>
       </c>
     </row>
     <row r="9">
@@ -28014,19 +28014,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>96.50703242634981</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I10" t="n">
         <v>134.9656217923382</v>
@@ -28053,19 +28053,19 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>146.6651919801579</v>
+        <v>19.66077927292511</v>
       </c>
       <c r="S10" t="n">
         <v>212.1455389500189</v>
       </c>
       <c r="T10" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
@@ -28381,7 +28381,7 @@
         <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>1.989519660128281e-13</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -28813,13 +28813,13 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>2.557953848736361e-13</v>
+        <v>0</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -28956,76 +28956,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>13.80081415713927</v>
+        <v>13.80081415713919</v>
       </c>
       <c r="C22" t="n">
-        <v>13.80081415713927</v>
+        <v>13.80081415713919</v>
       </c>
       <c r="D22" t="n">
-        <v>13.80081415713927</v>
+        <v>13.80081415713919</v>
       </c>
       <c r="E22" t="n">
-        <v>13.80081415713927</v>
+        <v>13.80081415713919</v>
       </c>
       <c r="F22" t="n">
-        <v>13.80081415713927</v>
+        <v>13.80081415713919</v>
       </c>
       <c r="G22" t="n">
-        <v>13.80081415713927</v>
+        <v>13.80081415713919</v>
       </c>
       <c r="H22" t="n">
-        <v>13.80081415713927</v>
+        <v>13.80081415713919</v>
       </c>
       <c r="I22" t="n">
-        <v>13.80081415713927</v>
+        <v>13.80081415713919</v>
       </c>
       <c r="J22" t="n">
-        <v>13.80081415713927</v>
+        <v>13.80081415713919</v>
       </c>
       <c r="K22" t="n">
-        <v>13.80081415713927</v>
+        <v>13.80081415713919</v>
       </c>
       <c r="L22" t="n">
-        <v>13.80081415713927</v>
+        <v>13.80081415713919</v>
       </c>
       <c r="M22" t="n">
-        <v>13.80081415713927</v>
+        <v>13.80081415713919</v>
       </c>
       <c r="N22" t="n">
-        <v>13.80081415713927</v>
+        <v>13.80081415713919</v>
       </c>
       <c r="O22" t="n">
-        <v>13.80081415713927</v>
+        <v>13.80081415713919</v>
       </c>
       <c r="P22" t="n">
-        <v>13.80081415713927</v>
+        <v>13.80081415713919</v>
       </c>
       <c r="Q22" t="n">
-        <v>13.80081415713927</v>
+        <v>13.80081415713919</v>
       </c>
       <c r="R22" t="n">
-        <v>13.80081415713927</v>
+        <v>13.80081415713919</v>
       </c>
       <c r="S22" t="n">
-        <v>13.80081415713927</v>
+        <v>13.80081415713919</v>
       </c>
       <c r="T22" t="n">
-        <v>13.80081415713927</v>
+        <v>13.80081415713919</v>
       </c>
       <c r="U22" t="n">
-        <v>13.80081415713927</v>
+        <v>13.80081415713919</v>
       </c>
       <c r="V22" t="n">
-        <v>13.80081415713927</v>
+        <v>13.80081415713919</v>
       </c>
       <c r="W22" t="n">
-        <v>13.80081415713927</v>
+        <v>13.80081415713919</v>
       </c>
       <c r="X22" t="n">
-        <v>13.80081415713927</v>
+        <v>13.80081415713919</v>
       </c>
       <c r="Y22" t="n">
-        <v>13.80081415713927</v>
+        <v>13.80081415713919</v>
       </c>
     </row>
     <row r="23">
@@ -29193,76 +29193,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>13.80081415713927</v>
+        <v>13.80081415713919</v>
       </c>
       <c r="C25" t="n">
-        <v>13.80081415713927</v>
+        <v>13.80081415713919</v>
       </c>
       <c r="D25" t="n">
-        <v>13.80081415713927</v>
+        <v>13.80081415713919</v>
       </c>
       <c r="E25" t="n">
-        <v>13.80081415713927</v>
+        <v>13.80081415713919</v>
       </c>
       <c r="F25" t="n">
-        <v>13.80081415713927</v>
+        <v>13.80081415713919</v>
       </c>
       <c r="G25" t="n">
-        <v>13.80081415713927</v>
+        <v>13.80081415713919</v>
       </c>
       <c r="H25" t="n">
-        <v>13.80081415713927</v>
+        <v>13.80081415713919</v>
       </c>
       <c r="I25" t="n">
-        <v>13.80081415713927</v>
+        <v>13.80081415713919</v>
       </c>
       <c r="J25" t="n">
-        <v>13.80081415713927</v>
+        <v>13.80081415713919</v>
       </c>
       <c r="K25" t="n">
-        <v>13.80081415713927</v>
+        <v>13.80081415713919</v>
       </c>
       <c r="L25" t="n">
-        <v>13.80081415713927</v>
+        <v>13.80081415713919</v>
       </c>
       <c r="M25" t="n">
-        <v>13.80081415713927</v>
+        <v>13.80081415713919</v>
       </c>
       <c r="N25" t="n">
-        <v>13.80081415713927</v>
+        <v>13.80081415713919</v>
       </c>
       <c r="O25" t="n">
-        <v>13.80081415713927</v>
+        <v>13.80081415713919</v>
       </c>
       <c r="P25" t="n">
-        <v>13.80081415713927</v>
+        <v>13.80081415713919</v>
       </c>
       <c r="Q25" t="n">
-        <v>13.80081415713927</v>
+        <v>13.80081415713919</v>
       </c>
       <c r="R25" t="n">
-        <v>13.80081415713927</v>
+        <v>13.80081415713919</v>
       </c>
       <c r="S25" t="n">
-        <v>13.80081415713927</v>
+        <v>13.80081415713919</v>
       </c>
       <c r="T25" t="n">
-        <v>13.80081415713927</v>
+        <v>13.80081415713919</v>
       </c>
       <c r="U25" t="n">
-        <v>13.80081415713927</v>
+        <v>13.80081415713919</v>
       </c>
       <c r="V25" t="n">
-        <v>13.80081415713927</v>
+        <v>13.80081415713919</v>
       </c>
       <c r="W25" t="n">
-        <v>13.80081415713927</v>
+        <v>13.80081415713919</v>
       </c>
       <c r="X25" t="n">
-        <v>13.80081415713927</v>
+        <v>13.80081415713919</v>
       </c>
       <c r="Y25" t="n">
-        <v>13.80081415713927</v>
+        <v>13.80081415713919</v>
       </c>
     </row>
     <row r="26">
@@ -29430,76 +29430,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>13.80081415713927</v>
+        <v>13.80081415713919</v>
       </c>
       <c r="C28" t="n">
-        <v>13.80081415713927</v>
+        <v>13.80081415713919</v>
       </c>
       <c r="D28" t="n">
-        <v>13.80081415713927</v>
+        <v>13.80081415713919</v>
       </c>
       <c r="E28" t="n">
-        <v>13.80081415713927</v>
+        <v>13.80081415713919</v>
       </c>
       <c r="F28" t="n">
-        <v>13.80081415713927</v>
+        <v>13.80081415713919</v>
       </c>
       <c r="G28" t="n">
-        <v>13.80081415713927</v>
+        <v>13.80081415713919</v>
       </c>
       <c r="H28" t="n">
-        <v>13.80081415713927</v>
+        <v>13.80081415713919</v>
       </c>
       <c r="I28" t="n">
-        <v>13.80081415713927</v>
+        <v>13.80081415713919</v>
       </c>
       <c r="J28" t="n">
-        <v>13.80081415713927</v>
+        <v>13.80081415713919</v>
       </c>
       <c r="K28" t="n">
-        <v>13.80081415713927</v>
+        <v>13.80081415713919</v>
       </c>
       <c r="L28" t="n">
-        <v>13.80081415713927</v>
+        <v>13.80081415713919</v>
       </c>
       <c r="M28" t="n">
-        <v>13.80081415713927</v>
+        <v>13.80081415713919</v>
       </c>
       <c r="N28" t="n">
-        <v>13.80081415713927</v>
+        <v>13.80081415713919</v>
       </c>
       <c r="O28" t="n">
-        <v>13.80081415713927</v>
+        <v>13.80081415713919</v>
       </c>
       <c r="P28" t="n">
-        <v>13.80081415713927</v>
+        <v>13.80081415713919</v>
       </c>
       <c r="Q28" t="n">
-        <v>13.80081415713927</v>
+        <v>13.80081415713919</v>
       </c>
       <c r="R28" t="n">
-        <v>13.80081415713927</v>
+        <v>13.80081415713919</v>
       </c>
       <c r="S28" t="n">
-        <v>13.80081415713927</v>
+        <v>13.80081415713919</v>
       </c>
       <c r="T28" t="n">
-        <v>13.80081415713927</v>
+        <v>13.80081415713919</v>
       </c>
       <c r="U28" t="n">
-        <v>13.80081415713927</v>
+        <v>13.80081415713919</v>
       </c>
       <c r="V28" t="n">
-        <v>13.80081415713927</v>
+        <v>13.80081415713919</v>
       </c>
       <c r="W28" t="n">
-        <v>13.80081415713927</v>
+        <v>13.80081415713919</v>
       </c>
       <c r="X28" t="n">
-        <v>13.80081415713927</v>
+        <v>13.80081415713919</v>
       </c>
       <c r="Y28" t="n">
-        <v>13.80081415713927</v>
+        <v>13.80081415713919</v>
       </c>
     </row>
     <row r="29">
@@ -29667,76 +29667,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>13.80081415713927</v>
+        <v>13.80081415713919</v>
       </c>
       <c r="C31" t="n">
-        <v>13.80081415713927</v>
+        <v>13.80081415713919</v>
       </c>
       <c r="D31" t="n">
-        <v>13.80081415713927</v>
+        <v>13.80081415713919</v>
       </c>
       <c r="E31" t="n">
-        <v>13.80081415713927</v>
+        <v>13.80081415713919</v>
       </c>
       <c r="F31" t="n">
-        <v>13.80081415713927</v>
+        <v>13.80081415713919</v>
       </c>
       <c r="G31" t="n">
-        <v>13.80081415713927</v>
+        <v>13.80081415713919</v>
       </c>
       <c r="H31" t="n">
-        <v>13.80081415713927</v>
+        <v>13.80081415713919</v>
       </c>
       <c r="I31" t="n">
-        <v>13.80081415713927</v>
+        <v>13.80081415713919</v>
       </c>
       <c r="J31" t="n">
-        <v>13.80081415713927</v>
+        <v>13.80081415713919</v>
       </c>
       <c r="K31" t="n">
-        <v>13.80081415713927</v>
+        <v>13.80081415713919</v>
       </c>
       <c r="L31" t="n">
-        <v>13.80081415713927</v>
+        <v>13.80081415713919</v>
       </c>
       <c r="M31" t="n">
-        <v>13.80081415713927</v>
+        <v>13.80081415713919</v>
       </c>
       <c r="N31" t="n">
-        <v>13.80081415713927</v>
+        <v>13.80081415713919</v>
       </c>
       <c r="O31" t="n">
-        <v>13.80081415713927</v>
+        <v>13.80081415713919</v>
       </c>
       <c r="P31" t="n">
-        <v>13.80081415713927</v>
+        <v>13.80081415713919</v>
       </c>
       <c r="Q31" t="n">
-        <v>13.80081415713927</v>
+        <v>13.80081415713919</v>
       </c>
       <c r="R31" t="n">
-        <v>13.80081415713927</v>
+        <v>13.80081415713919</v>
       </c>
       <c r="S31" t="n">
-        <v>13.80081415713927</v>
+        <v>13.80081415713919</v>
       </c>
       <c r="T31" t="n">
-        <v>13.80081415713927</v>
+        <v>13.80081415713919</v>
       </c>
       <c r="U31" t="n">
-        <v>13.80081415713927</v>
+        <v>13.80081415713919</v>
       </c>
       <c r="V31" t="n">
-        <v>13.80081415713927</v>
+        <v>13.80081415713919</v>
       </c>
       <c r="W31" t="n">
-        <v>13.80081415713927</v>
+        <v>13.80081415713919</v>
       </c>
       <c r="X31" t="n">
-        <v>13.80081415713927</v>
+        <v>13.80081415713919</v>
       </c>
       <c r="Y31" t="n">
-        <v>13.80081415713927</v>
+        <v>13.80081415713919</v>
       </c>
     </row>
     <row r="32">
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="C34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="D34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="E34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="F34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="G34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="H34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="I34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="J34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="K34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="L34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="M34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="N34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="O34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="P34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="Q34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="R34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="S34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="T34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="U34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="V34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="W34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="X34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="Y34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
     </row>
     <row r="35">
@@ -29983,28 +29983,28 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="C35" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="D35" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="E35" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="F35" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="G35" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="H35" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="I35" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -30034,25 +30034,25 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="T35" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="U35" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964213</v>
       </c>
       <c r="V35" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="W35" t="n">
-        <v>68.13189012964182</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="X35" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="Y35" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
     </row>
     <row r="36">
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="C37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="D37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="E37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="F37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="G37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="H37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="I37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="J37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="K37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="L37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="M37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="N37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="O37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="P37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="Q37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="R37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="S37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="T37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="U37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="V37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="W37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="X37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="Y37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
     </row>
     <row r="38">
@@ -30469,7 +30469,7 @@
         <v>68.13189012964065</v>
       </c>
       <c r="F41" t="n">
-        <v>68.13189012964199</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="G41" t="n">
         <v>68.13189012964065</v>
@@ -30508,7 +30508,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964145</v>
       </c>
       <c r="T41" t="n">
         <v>68.13189012964065</v>
@@ -30694,28 +30694,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="C44" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="D44" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="E44" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="F44" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="G44" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="H44" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="I44" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -30745,25 +30745,25 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>68.1318901296419</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="T44" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="U44" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="V44" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="W44" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="X44" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="Y44" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964193</v>
       </c>
     </row>
     <row r="45">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="C46" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="D46" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="E46" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="F46" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="G46" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="H46" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="I46" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="J46" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="K46" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="L46" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="M46" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="N46" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="O46" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="P46" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="Q46" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="R46" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="S46" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="T46" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="U46" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="V46" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="W46" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="X46" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="Y46" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964065</v>
       </c>
     </row>
   </sheetData>
@@ -31276,49 +31276,49 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>0.3847039026004924</v>
+        <v>0.384703902600494</v>
       </c>
       <c r="H5" t="n">
-        <v>3.939848842507293</v>
+        <v>3.93984884250731</v>
       </c>
       <c r="I5" t="n">
-        <v>14.8312972050055</v>
+        <v>14.83129720500556</v>
       </c>
       <c r="J5" t="n">
-        <v>32.65126285333857</v>
+        <v>32.6512628533387</v>
       </c>
       <c r="K5" t="n">
-        <v>48.93577905041742</v>
+        <v>48.93577905041762</v>
       </c>
       <c r="L5" t="n">
-        <v>60.70916110962725</v>
+        <v>60.7091611096275</v>
       </c>
       <c r="M5" t="n">
-        <v>67.55063913749875</v>
+        <v>67.55063913749903</v>
       </c>
       <c r="N5" t="n">
-        <v>68.64367910076241</v>
+        <v>68.6436791007627</v>
       </c>
       <c r="O5" t="n">
-        <v>64.81827966927875</v>
+        <v>64.81827966927902</v>
       </c>
       <c r="P5" t="n">
-        <v>55.3209020738291</v>
+        <v>55.32090207382932</v>
       </c>
       <c r="Q5" t="n">
-        <v>41.54369356194895</v>
+        <v>41.54369356194912</v>
       </c>
       <c r="R5" t="n">
-        <v>24.1656565217282</v>
+        <v>24.1656565217283</v>
       </c>
       <c r="S5" t="n">
-        <v>8.766440180508729</v>
+        <v>8.766440180508765</v>
       </c>
       <c r="T5" t="n">
-        <v>1.684041333633656</v>
+        <v>1.684041333633663</v>
       </c>
       <c r="U5" t="n">
-        <v>0.03077631220803938</v>
+        <v>0.03077631220803951</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31355,49 +31355,49 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.2058347343017636</v>
+        <v>0.2058347343017644</v>
       </c>
       <c r="H6" t="n">
-        <v>1.987930197072296</v>
+        <v>1.987930197072304</v>
       </c>
       <c r="I6" t="n">
-        <v>7.086853790652826</v>
+        <v>7.086853790652856</v>
       </c>
       <c r="J6" t="n">
-        <v>19.44686847190478</v>
+        <v>19.44686847190486</v>
       </c>
       <c r="K6" t="n">
-        <v>33.23779567012294</v>
+        <v>33.23779567012308</v>
       </c>
       <c r="L6" t="n">
-        <v>44.69231807723161</v>
+        <v>44.6923180772318</v>
       </c>
       <c r="M6" t="n">
-        <v>52.15382719567053</v>
+        <v>52.15382719567075</v>
       </c>
       <c r="N6" t="n">
-        <v>53.53418381298368</v>
+        <v>53.5341838129839</v>
       </c>
       <c r="O6" t="n">
-        <v>48.97331943713934</v>
+        <v>48.97331943713954</v>
       </c>
       <c r="P6" t="n">
-        <v>39.30540641241308</v>
+        <v>39.30540641241325</v>
       </c>
       <c r="Q6" t="n">
-        <v>26.27462327683565</v>
+        <v>26.27462327683576</v>
       </c>
       <c r="R6" t="n">
-        <v>12.77980920515687</v>
+        <v>12.77980920515692</v>
       </c>
       <c r="S6" t="n">
-        <v>3.823289911263019</v>
+        <v>3.823289911263034</v>
       </c>
       <c r="T6" t="n">
-        <v>0.8296584246636871</v>
+        <v>0.8296584246636906</v>
       </c>
       <c r="U6" t="n">
-        <v>0.01354175883564235</v>
+        <v>0.0135417588356424</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,49 +31434,49 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.1725649268017374</v>
+        <v>0.1725649268017381</v>
       </c>
       <c r="H7" t="n">
-        <v>1.53425907647363</v>
+        <v>1.534259076473636</v>
       </c>
       <c r="I7" t="n">
-        <v>5.189497980546794</v>
+        <v>5.189497980546816</v>
       </c>
       <c r="J7" t="n">
-        <v>12.20034032488283</v>
+        <v>12.20034032488288</v>
       </c>
       <c r="K7" t="n">
-        <v>20.04890695023821</v>
+        <v>20.04890695023829</v>
       </c>
       <c r="L7" t="n">
-        <v>25.65569829923285</v>
+        <v>25.65569829923296</v>
       </c>
       <c r="M7" t="n">
-        <v>27.05033666220324</v>
+        <v>27.05033666220336</v>
       </c>
       <c r="N7" t="n">
-        <v>26.40714011685134</v>
+        <v>26.40714011685144</v>
       </c>
       <c r="O7" t="n">
-        <v>24.39126801739467</v>
+        <v>24.39126801739477</v>
       </c>
       <c r="P7" t="n">
-        <v>20.87094351063921</v>
+        <v>20.87094351063929</v>
       </c>
       <c r="Q7" t="n">
-        <v>14.44995946155275</v>
+        <v>14.44995946155281</v>
       </c>
       <c r="R7" t="n">
-        <v>7.759146617830843</v>
+        <v>7.759146617830876</v>
       </c>
       <c r="S7" t="n">
-        <v>3.007336042535731</v>
+        <v>3.007336042535743</v>
       </c>
       <c r="T7" t="n">
-        <v>0.7373228690619685</v>
+        <v>0.7373228690619715</v>
       </c>
       <c r="U7" t="n">
-        <v>0.009412632371003867</v>
+        <v>0.009412632371003905</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -34775,13 +34775,13 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>6.370323552522125</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>138.7877391315784</v>
       </c>
       <c r="L3" t="n">
-        <v>248.6418854471727</v>
+        <v>117.41311485904</v>
       </c>
       <c r="M3" t="n">
         <v>276.1565137023554</v>
@@ -34790,13 +34790,13 @@
         <v>276.1565137023554</v>
       </c>
       <c r="O3" t="n">
-        <v>93.64045453795988</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
         <v>198.8728484821095</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>79.71116244199195</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34933,28 +34933,28 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>20.70197349872605</v>
+        <v>20.70197349872618</v>
       </c>
       <c r="K5" t="n">
-        <v>152.9913405766016</v>
+        <v>152.9913405766018</v>
       </c>
       <c r="L5" t="n">
-        <v>242.6039606900904</v>
+        <v>242.6039606900907</v>
       </c>
       <c r="M5" t="n">
-        <v>286.7179394030585</v>
+        <v>286.7179394030588</v>
       </c>
       <c r="N5" t="n">
-        <v>276.5775399161557</v>
+        <v>276.577539916156</v>
       </c>
       <c r="O5" t="n">
-        <v>215.5202495103374</v>
+        <v>215.5202495103376</v>
       </c>
       <c r="P5" t="n">
-        <v>145.8866144900422</v>
+        <v>145.8866144900424</v>
       </c>
       <c r="Q5" t="n">
-        <v>31.55299434740414</v>
+        <v>31.55299434740432</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35012,28 +35012,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>18.70027714564701</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>159.8615937083427</v>
       </c>
       <c r="L6" t="n">
-        <v>276.9782836008166</v>
+        <v>180.5477113463498</v>
       </c>
       <c r="M6" t="n">
-        <v>346.6395628336969</v>
+        <v>346.6395628336974</v>
       </c>
       <c r="N6" t="n">
-        <v>224.9016040904581</v>
+        <v>346.6395628336974</v>
       </c>
       <c r="O6" t="n">
-        <v>300.2393942694245</v>
+        <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>223.79376763802</v>
+        <v>223.7937676380202</v>
       </c>
       <c r="Q6" t="n">
-        <v>0</v>
+        <v>96.37013692666333</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35097,19 +35097,19 @@
         <v>0</v>
       </c>
       <c r="L7" t="n">
-        <v>53.24572355954898</v>
+        <v>53.24572355954909</v>
       </c>
       <c r="M7" t="n">
-        <v>66.63421362404384</v>
+        <v>66.63421362404395</v>
       </c>
       <c r="N7" t="n">
-        <v>70.53931249607993</v>
+        <v>70.53931249608004</v>
       </c>
       <c r="O7" t="n">
-        <v>48.97639593143434</v>
+        <v>48.97639593143444</v>
       </c>
       <c r="P7" t="n">
-        <v>18.1495027755327</v>
+        <v>18.14950277553278</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -35249,7 +35249,7 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K9" t="n">
         <v>257.8255762031298</v>
@@ -35270,7 +35270,7 @@
         <v>339.6412258735646</v>
       </c>
       <c r="Q9" t="n">
-        <v>130.3926104730631</v>
+        <v>54.37527471535621</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35422,13 +35422,13 @@
         <v>803.5809304081118</v>
       </c>
       <c r="O11" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951471</v>
       </c>
       <c r="P11" t="n">
         <v>570.6060255109123</v>
       </c>
       <c r="Q11" t="n">
-        <v>350.4995841502051</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R11" t="n">
         <v>59.8253897034981</v>
@@ -35486,10 +35486,10 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K12" t="n">
-        <v>384.9870895382559</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L12" t="n">
         <v>249.2577049560243</v>
@@ -35501,13 +35501,13 @@
         <v>333.1945733980129</v>
       </c>
       <c r="O12" t="n">
-        <v>282.3637022411082</v>
+        <v>676.2260215178377</v>
       </c>
       <c r="P12" t="n">
-        <v>525.5561835714618</v>
+        <v>437.8086013087286</v>
       </c>
       <c r="Q12" t="n">
-        <v>298.0903205209232</v>
+        <v>88.01303278507413</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35653,7 +35653,7 @@
         <v>708.6910667109072</v>
       </c>
       <c r="M14" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N14" t="n">
         <v>803.5809304081118</v>
@@ -35665,7 +35665,7 @@
         <v>570.6060255109123</v>
       </c>
       <c r="Q14" t="n">
-        <v>350.4995841502051</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R14" t="n">
         <v>59.8253897034981</v>
@@ -35726,7 +35726,7 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K15" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L15" t="n">
         <v>249.2577049560243</v>
@@ -35735,19 +35735,19 @@
         <v>310.4243770504663</v>
       </c>
       <c r="N15" t="n">
-        <v>812.5369477415665</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O15" t="n">
-        <v>282.3637022411082</v>
+        <v>676.2260215178377</v>
       </c>
       <c r="P15" t="n">
-        <v>280.6254601782248</v>
+        <v>300.9801800114506</v>
       </c>
       <c r="Q15" t="n">
-        <v>298.0903205209232</v>
+        <v>88.01303278507413</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>10.73738595686865</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35881,7 +35881,7 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>271.3780219415078</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K17" t="n">
         <v>528.6897561303331</v>
@@ -35902,7 +35902,7 @@
         <v>570.6060255109123</v>
       </c>
       <c r="Q17" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502051</v>
       </c>
       <c r="R17" t="n">
         <v>59.8253897034981</v>
@@ -35963,13 +35963,13 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K18" t="n">
-        <v>384.9870895382559</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L18" t="n">
-        <v>249.2577049560243</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M18" t="n">
-        <v>310.4243770504663</v>
+        <v>373.3355844763043</v>
       </c>
       <c r="N18" t="n">
         <v>333.1945733980129</v>
@@ -35981,10 +35981,10 @@
         <v>525.5561835714618</v>
       </c>
       <c r="Q18" t="n">
-        <v>298.0903205209232</v>
+        <v>88.01303278507413</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>10.73738595686865</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36197,7 +36197,7 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>168.0012142953155</v>
+        <v>137.9476282330536</v>
       </c>
       <c r="K21" t="n">
         <v>415.0406756005178</v>
@@ -36206,7 +36206,7 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M21" t="n">
-        <v>598.8335596281414</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N21" t="n">
         <v>333.1945733980129</v>
@@ -36215,7 +36215,7 @@
         <v>282.3637022411082</v>
       </c>
       <c r="P21" t="n">
-        <v>207.0934149315247</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q21" t="n">
         <v>298.0903205209232</v>
@@ -36276,19 +36276,19 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>26.3085843227048</v>
+        <v>26.30858432270472</v>
       </c>
       <c r="K22" t="n">
-        <v>165.5032426870499</v>
+        <v>165.5032426870498</v>
       </c>
       <c r="L22" t="n">
-        <v>264.0150010370678</v>
+        <v>264.0150010370677</v>
       </c>
       <c r="M22" t="n">
-        <v>288.1106553361118</v>
+        <v>288.1106553361117</v>
       </c>
       <c r="N22" t="n">
-        <v>287.0776919627429</v>
+        <v>287.0776919627428</v>
       </c>
       <c r="O22" t="n">
         <v>250.0381656777421</v>
@@ -36297,7 +36297,7 @@
         <v>192.18441476894</v>
       </c>
       <c r="Q22" t="n">
-        <v>53.02651412901403</v>
+        <v>53.02651412901395</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36376,10 +36376,10 @@
         <v>570.6060255109123</v>
       </c>
       <c r="Q23" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502051</v>
       </c>
       <c r="R23" t="n">
-        <v>59.82538970349766</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36443,19 +36443,19 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M24" t="n">
-        <v>776.1294408004662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N24" t="n">
-        <v>756.5322523145245</v>
+        <v>812.5369477415665</v>
       </c>
       <c r="O24" t="n">
         <v>282.3637022411082</v>
       </c>
       <c r="P24" t="n">
-        <v>207.0934149315247</v>
+        <v>406.7164955186337</v>
       </c>
       <c r="Q24" t="n">
-        <v>88.01303278507413</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36513,19 +36513,19 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>26.3085843227048</v>
+        <v>26.30858432270472</v>
       </c>
       <c r="K25" t="n">
-        <v>165.5032426870499</v>
+        <v>165.5032426870498</v>
       </c>
       <c r="L25" t="n">
-        <v>264.0150010370678</v>
+        <v>264.0150010370677</v>
       </c>
       <c r="M25" t="n">
-        <v>288.1106553361118</v>
+        <v>288.1106553361117</v>
       </c>
       <c r="N25" t="n">
-        <v>287.0776919627429</v>
+        <v>287.0776919627428</v>
       </c>
       <c r="O25" t="n">
         <v>250.0381656777421</v>
@@ -36534,7 +36534,7 @@
         <v>192.18441476894</v>
       </c>
       <c r="Q25" t="n">
-        <v>53.02651412901403</v>
+        <v>53.02651412901395</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36601,7 +36601,7 @@
         <v>708.6910667109072</v>
       </c>
       <c r="M26" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N26" t="n">
         <v>803.5809304081118</v>
@@ -36686,16 +36686,16 @@
         <v>812.5369477415665</v>
       </c>
       <c r="O27" t="n">
-        <v>282.3637022411082</v>
+        <v>555.2356492667885</v>
       </c>
       <c r="P27" t="n">
-        <v>280.6254601782248</v>
+        <v>207.0934149315247</v>
       </c>
       <c r="Q27" t="n">
-        <v>298.0903205209232</v>
+        <v>88.01303278507413</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>10.73738595686865</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36750,19 +36750,19 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>26.3085843227048</v>
+        <v>26.30858432270472</v>
       </c>
       <c r="K28" t="n">
-        <v>165.5032426870499</v>
+        <v>165.5032426870498</v>
       </c>
       <c r="L28" t="n">
-        <v>264.0150010370678</v>
+        <v>264.0150010370677</v>
       </c>
       <c r="M28" t="n">
-        <v>288.1106553361118</v>
+        <v>288.1106553361117</v>
       </c>
       <c r="N28" t="n">
-        <v>287.0776919627429</v>
+        <v>287.0776919627428</v>
       </c>
       <c r="O28" t="n">
         <v>250.0381656777421</v>
@@ -36771,7 +36771,7 @@
         <v>192.18441476894</v>
       </c>
       <c r="Q28" t="n">
-        <v>53.02651412901403</v>
+        <v>53.02651412901395</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36841,7 +36841,7 @@
         <v>805.3296502221117</v>
       </c>
       <c r="N29" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O29" t="n">
         <v>713.1546070951472</v>
@@ -36908,28 +36908,28 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K30" t="n">
         <v>415.0406756005178</v>
       </c>
       <c r="L30" t="n">
-        <v>249.2577049560243</v>
+        <v>397.3927609030887</v>
       </c>
       <c r="M30" t="n">
-        <v>310.4243770504663</v>
+        <v>776.1294408004662</v>
       </c>
       <c r="N30" t="n">
         <v>333.1945733980129</v>
       </c>
       <c r="O30" t="n">
-        <v>560.0354988619143</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P30" t="n">
         <v>207.0934149315247</v>
       </c>
       <c r="Q30" t="n">
-        <v>298.0903205209232</v>
+        <v>88.01303278507413</v>
       </c>
       <c r="R30" t="n">
         <v>10.73738595686865</v>
@@ -36987,19 +36987,19 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>26.3085843227048</v>
+        <v>26.30858432270472</v>
       </c>
       <c r="K31" t="n">
-        <v>165.5032426870499</v>
+        <v>165.5032426870498</v>
       </c>
       <c r="L31" t="n">
-        <v>264.0150010370678</v>
+        <v>264.0150010370677</v>
       </c>
       <c r="M31" t="n">
-        <v>288.1106553361118</v>
+        <v>288.1106553361117</v>
       </c>
       <c r="N31" t="n">
-        <v>287.0776919627429</v>
+        <v>287.0776919627428</v>
       </c>
       <c r="O31" t="n">
         <v>250.0381656777421</v>
@@ -37008,7 +37008,7 @@
         <v>192.18441476894</v>
       </c>
       <c r="Q31" t="n">
-        <v>53.02651412901403</v>
+        <v>53.02651412901395</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37066,13 +37066,13 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>271.3780219415078</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K32" t="n">
         <v>528.6897561303331</v>
       </c>
       <c r="L32" t="n">
-        <v>708.6910667109072</v>
+        <v>708.691066710907</v>
       </c>
       <c r="M32" t="n">
         <v>805.3296502221117</v>
@@ -37145,31 +37145,31 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K33" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L33" t="n">
-        <v>249.2577049560243</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M33" t="n">
         <v>310.4243770504663</v>
       </c>
       <c r="N33" t="n">
-        <v>812.5369477415665</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O33" t="n">
         <v>282.3637022411082</v>
       </c>
       <c r="P33" t="n">
-        <v>280.6254601782248</v>
+        <v>240.0159015892805</v>
       </c>
       <c r="Q33" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>10.73738595686865</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37224,10 +37224,10 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>80.63966029520621</v>
+        <v>80.6396602952062</v>
       </c>
       <c r="K34" t="n">
-        <v>219.8343186595513</v>
+        <v>219.8343186595512</v>
       </c>
       <c r="L34" t="n">
         <v>318.3460770095692</v>
@@ -37309,25 +37309,25 @@
         <v>528.6897561303331</v>
       </c>
       <c r="L35" t="n">
-        <v>708.6910667109072</v>
+        <v>291.0298521604568</v>
       </c>
       <c r="M35" t="n">
         <v>355.8161167292792</v>
       </c>
       <c r="N35" t="n">
-        <v>591.1659930418549</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O35" t="n">
-        <v>332.3544258324018</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P35" t="n">
         <v>570.6060255109123</v>
       </c>
       <c r="Q35" t="n">
-        <v>350.4995841502048</v>
+        <v>234.7710697751512</v>
       </c>
       <c r="R35" t="n">
-        <v>59.8253897034981</v>
+        <v>0</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37394,16 +37394,16 @@
         <v>310.4243770504663</v>
       </c>
       <c r="N36" t="n">
-        <v>812.5369477415665</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O36" t="n">
-        <v>282.3637022411082</v>
+        <v>676.2260215178377</v>
       </c>
       <c r="P36" t="n">
-        <v>280.625460178225</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q36" t="n">
-        <v>298.0903205209232</v>
+        <v>138.6396521945101</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37461,7 +37461,7 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>80.63966029520618</v>
+        <v>80.63966029520617</v>
       </c>
       <c r="K37" t="n">
         <v>219.8343186595512</v>
@@ -37476,7 +37476,7 @@
         <v>341.4087679352443</v>
       </c>
       <c r="O37" t="n">
-        <v>304.3692416502436</v>
+        <v>304.3692416502435</v>
       </c>
       <c r="P37" t="n">
         <v>246.5154907414414</v>
@@ -37540,7 +37540,7 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>102.2814067694342</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K38" t="n">
         <v>204.5443435591683</v>
@@ -37549,19 +37549,19 @@
         <v>708.6910667109072</v>
       </c>
       <c r="M38" t="n">
-        <v>805.3296502221117</v>
+        <v>358.8867910348445</v>
       </c>
       <c r="N38" t="n">
         <v>803.5809304081118</v>
       </c>
       <c r="O38" t="n">
-        <v>332.3544258324018</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P38" t="n">
         <v>570.6060255109123</v>
       </c>
       <c r="Q38" t="n">
-        <v>241.6385307378521</v>
+        <v>138.1845934903002</v>
       </c>
       <c r="R38" t="n">
         <v>0</v>
@@ -37619,7 +37619,7 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K39" t="n">
         <v>415.0406756005178</v>
@@ -37628,22 +37628,22 @@
         <v>620.0980502594834</v>
       </c>
       <c r="M39" t="n">
-        <v>427.3331161036625</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N39" t="n">
         <v>333.1945733980129</v>
       </c>
       <c r="O39" t="n">
-        <v>282.3637022411082</v>
+        <v>326.0235748557327</v>
       </c>
       <c r="P39" t="n">
         <v>207.0934149315247</v>
       </c>
       <c r="Q39" t="n">
-        <v>88.01303278507413</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R39" t="n">
-        <v>10.73738595686865</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37777,13 +37777,13 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>271.3780219415079</v>
+        <v>102.2814067694342</v>
       </c>
       <c r="K41" t="n">
-        <v>204.5443435591683</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L41" t="n">
-        <v>708.6910667109072</v>
+        <v>291.0298521604568</v>
       </c>
       <c r="M41" t="n">
         <v>355.8161167292792</v>
@@ -37795,13 +37795,13 @@
         <v>713.1546070951472</v>
       </c>
       <c r="P41" t="n">
-        <v>361.3617091565735</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q41" t="n">
-        <v>350.4995841502048</v>
+        <v>344.0422952437268</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37856,10 +37856,10 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>168.0012142953155</v>
+        <v>136.0477032746127</v>
       </c>
       <c r="K42" t="n">
-        <v>237.744794428193</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L42" t="n">
         <v>249.2577049560243</v>
@@ -37874,13 +37874,13 @@
         <v>282.3637022411082</v>
       </c>
       <c r="P42" t="n">
-        <v>207.0934149315247</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q42" t="n">
-        <v>298.0903205209232</v>
+        <v>88.01303278507413</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>10.73738595686865</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -38014,31 +38014,31 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>271.3780219415079</v>
+        <v>214.6233065435752</v>
       </c>
       <c r="K44" t="n">
-        <v>248.3853831462246</v>
+        <v>204.5443435591683</v>
       </c>
       <c r="L44" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M44" t="n">
-        <v>805.3296502221117</v>
+        <v>355.8161167292792</v>
       </c>
       <c r="N44" t="n">
         <v>803.5809304081118</v>
       </c>
       <c r="O44" t="n">
-        <v>332.3544258324018</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P44" t="n">
-        <v>248.8073173394297</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q44" t="n">
-        <v>350.4995841502048</v>
+        <v>138.1845934903002</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38093,10 +38093,10 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K45" t="n">
-        <v>224.1074838346394</v>
+        <v>316.5557073809155</v>
       </c>
       <c r="L45" t="n">
         <v>249.2577049560243</v>
@@ -38105,19 +38105,19 @@
         <v>310.4243770504663</v>
       </c>
       <c r="N45" t="n">
-        <v>812.5369477415665</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O45" t="n">
-        <v>282.3637022411082</v>
+        <v>676.2260215178377</v>
       </c>
       <c r="P45" t="n">
-        <v>207.0934149315247</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q45" t="n">
-        <v>298.0903205209232</v>
+        <v>88.01303278507413</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>10.73738595686865</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38172,7 +38172,7 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>80.63966029520616</v>
+        <v>80.63966029520618</v>
       </c>
       <c r="K46" t="n">
         <v>219.8343186595512</v>
@@ -38187,7 +38187,7 @@
         <v>341.4087679352443</v>
       </c>
       <c r="O46" t="n">
-        <v>304.3692416502435</v>
+        <v>304.3692416502436</v>
       </c>
       <c r="P46" t="n">
         <v>246.5154907414414</v>
